--- a/Experiments .xlsx
+++ b/Experiments .xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f88332955ad48600/Documents/GitHub/COMP3004-Video-Streaming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{CA5E7FB9-4852-488A-8D55-CCC282691222}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0FD18906-753C-489D-90DF-D9EA1BDC531D}"/>
+  <xr:revisionPtr revIDLastSave="577" documentId="13_ncr:1_{CA5E7FB9-4852-488A-8D55-CCC282691222}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{273E5D74-19A4-4137-8952-AC86472F4E91}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{A0187C2B-7DBE-4E8F-8150-6C604E7E9350}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A0187C2B-7DBE-4E8F-8150-6C604E7E9350}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Experiments" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Objective tests" sheetId="3" r:id="rId2"/>
+    <sheet name="Subjective Tests" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="107">
   <si>
     <t>High Bandwidth - 5Mb</t>
   </si>
@@ -49,15 +50,6 @@
     <t>Low Delay - 0ms</t>
   </si>
   <si>
-    <t>600-bitrate</t>
-  </si>
-  <si>
-    <t>1200-bitrate</t>
-  </si>
-  <si>
-    <t>2400-bitrate</t>
-  </si>
-  <si>
     <t>What is the percentage for Blockiness</t>
   </si>
   <si>
@@ -101,6 +93,270 @@
   </si>
   <si>
     <t>Initial delay, average buffering event and average buffering time</t>
+  </si>
+  <si>
+    <t>What is the average Buffer Length?</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandwidth </t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Packet Loss</t>
+  </si>
+  <si>
+    <t>5Mbps</t>
+  </si>
+  <si>
+    <t>2Mbps</t>
+  </si>
+  <si>
+    <t>10Mbps</t>
+  </si>
+  <si>
+    <t>Initail Delay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffer frequency </t>
+  </si>
+  <si>
+    <t>Buffer duration</t>
+  </si>
+  <si>
+    <t>0 ms</t>
+  </si>
+  <si>
+    <t>2 ms</t>
+  </si>
+  <si>
+    <t>4ms</t>
+  </si>
+  <si>
+    <t>Dropped Frames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ending Bitrate </t>
+  </si>
+  <si>
+    <t>Starting Bitrate</t>
+  </si>
+  <si>
+    <t>Average Buffer Length</t>
+  </si>
+  <si>
+    <t>Constant Bandwidth = 5Mbps</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Average Buffer duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Buffer frequency </t>
+  </si>
+  <si>
+    <t>MOS</t>
+  </si>
+  <si>
+    <t>1Mbps</t>
+  </si>
+  <si>
+    <t>Minimal Delay and Packet Loss (0ms and 0%)</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>1.3.3</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>2.2.3</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>2.3.3</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>3.1.3</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>3.2.3</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>3.3.2</t>
+  </si>
+  <si>
+    <t>3.3.3</t>
+  </si>
+  <si>
+    <t>Experiment 1.1 --&gt; 1Mbps - 0ms - 0%</t>
+  </si>
+  <si>
+    <t>Experiment 1.2 --&gt; 1Mbps - 0ms - 3%</t>
+  </si>
+  <si>
+    <t>Experiment 1.3 --&gt; 1Mbps - 0ms - 6%</t>
+  </si>
+  <si>
+    <t>Experiment 2.1 --&gt; 5Mbps - 0ms - 0%</t>
+  </si>
+  <si>
+    <t>Experiment 2.2 --&gt; 5Mbps - 0ms - 3%</t>
+  </si>
+  <si>
+    <t>Experiment 2.3 --&gt; 5Mbps - 0ms - 6%</t>
+  </si>
+  <si>
+    <t>Experiment 3.1 --&gt; 10Mbps - 0ms - 0%</t>
+  </si>
+  <si>
+    <t>Experiment 3.2 --&gt; 10Mbps - 0ms - 3%</t>
+  </si>
+  <si>
+    <t>Experiment 3.3 --&gt; 10Mbps - 0ms - 6%</t>
+  </si>
+  <si>
+    <t>Average Buffer Duration</t>
+  </si>
+  <si>
+    <t>Objective + DASH Metrics</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <t>1.3.4</t>
+  </si>
+  <si>
+    <t>2.1.4</t>
+  </si>
+  <si>
+    <t>2.2.4</t>
+  </si>
+  <si>
+    <t>2.3.4</t>
+  </si>
+  <si>
+    <t>3.1.4</t>
+  </si>
+  <si>
+    <t>3.2.4</t>
+  </si>
+  <si>
+    <t>3.3.4</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Impairment</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Imperceptible</t>
+  </si>
+  <si>
+    <t>Perceptible but not annoying</t>
+  </si>
+  <si>
+    <t>Slightly annoying</t>
+  </si>
+  <si>
+    <t>Very annoying</t>
+  </si>
+  <si>
+    <t>Annoying</t>
+  </si>
+  <si>
+    <t>MOS Key</t>
+  </si>
+  <si>
+    <t>Average Initial Delay</t>
+  </si>
+  <si>
+    <t>sudo</t>
   </si>
 </sst>
 </file>
@@ -116,18 +372,181 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -136,8 +555,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F93F3E-AA14-4B2B-92AA-FFE9789BD945}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,143 +980,108 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -625,68 +1092,57 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>4</v>
       </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -695,13 +1151,1557 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914F0214-9164-4496-97B7-0486B12043BE}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B747B0F1-CFAD-4F10-B36A-D0AE4528B4AC}">
+  <dimension ref="G2:V64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.21875" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="16" max="17" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="L2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="16"/>
+    </row>
+    <row r="3" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" s="17"/>
+      <c r="V4" s="18"/>
+    </row>
+    <row r="5" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="31"/>
+    </row>
+    <row r="6" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="31"/>
+    </row>
+    <row r="7" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="33"/>
+    </row>
+    <row r="8" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="23" t="e">
+        <f>AVERAGE(R4,R5,R6,R7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U8" s="23" t="e">
+        <f>AVERAGE(S4,S5,S6,S7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V8" s="3" t="e">
+        <f>AVERAGE(Q4,Q5,Q6,Q7)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="U9" s="17"/>
+      <c r="V9" s="18"/>
+    </row>
+    <row r="10" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="L10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="31"/>
+    </row>
+    <row r="11" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="L11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="31"/>
+    </row>
+    <row r="12" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G12" s="13"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="L12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="33"/>
+    </row>
+    <row r="13" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G13" s="13"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="3" t="e">
+        <f>AVERAGE(R9,R10,R11,R12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" s="3" t="e">
+        <f>AVERAGE(S9,S10,S11,S12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="3" t="e">
+        <f>AVERAGE(Q9,Q10,Q11,Q12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="U14" s="17"/>
+      <c r="V14" s="18"/>
+    </row>
+    <row r="15" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="31"/>
+    </row>
+    <row r="16" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="31"/>
+    </row>
+    <row r="17" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="33"/>
+    </row>
+    <row r="18" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="3" t="e">
+        <f>AVERAGE(R14,R15,R16,R17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U18" s="3" t="e">
+        <f>AVERAGE(S14,S15,S16,S17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V18" s="3" t="e">
+        <f>AVERAGE(Q14,Q15,Q16,Q17)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="U19" s="17"/>
+      <c r="V19" s="18"/>
+    </row>
+    <row r="20" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="31"/>
+    </row>
+    <row r="21" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="31"/>
+    </row>
+    <row r="22" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="33"/>
+    </row>
+    <row r="23" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="3" t="e">
+        <f>AVERAGE(R19,R20,R21,R22)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U23" s="3" t="e">
+        <f>AVERAGE(S19,S20,S21,S22)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V23" s="3" t="e">
+        <f>AVERAGE(Q19,Q20,Q21,Q22)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="U24" s="17"/>
+      <c r="V24" s="18"/>
+    </row>
+    <row r="25" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G25" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="31"/>
+    </row>
+    <row r="26" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G26" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="31"/>
+    </row>
+    <row r="27" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G27" s="20"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="L27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="33"/>
+    </row>
+    <row r="28" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G28" s="20"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="3" t="e">
+        <f>AVERAGE(R24,R25,R26,R27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" s="3" t="e">
+        <f>AVERAGE(S27,S26,S25,S24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28" s="3" t="e">
+        <f>AVERAGE(Q24,Q25,Q26,Q27)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="L29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="U29" s="17"/>
+      <c r="V29" s="18"/>
+    </row>
+    <row r="30" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="L30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="31"/>
+    </row>
+    <row r="31" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="31"/>
+    </row>
+    <row r="32" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="L32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="33"/>
+    </row>
+    <row r="33" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="3" t="e">
+        <f>AVERAGE(R32,R31,R30,R29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U33" s="3" t="e">
+        <f>AVERAGE(S32,S31,S30,S29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V33" s="3" t="e">
+        <f>AVERAGE(Q29,Q30,Q31,Q32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="L34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="U34" s="17"/>
+      <c r="V34" s="18"/>
+    </row>
+    <row r="35" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G35" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="L35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="31"/>
+    </row>
+    <row r="36" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="L36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="31"/>
+    </row>
+    <row r="37" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G37" s="4"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="L37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="33"/>
+    </row>
+    <row r="38" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G38" s="4"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="3" t="e">
+        <f>AVERAGE(R37,R36,R35,R34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U38" s="3" t="e">
+        <f>AVERAGE(S37,S36,S35,S34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V38" s="3" t="e">
+        <f>AVERAGE(Q34,Q35,Q36,Q37)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G39" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="L39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="U39" s="17"/>
+      <c r="V39" s="18"/>
+    </row>
+    <row r="40" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G40" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="L40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="31"/>
+    </row>
+    <row r="41" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G41" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="L41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="31"/>
+    </row>
+    <row r="42" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="L42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="33"/>
+    </row>
+    <row r="43" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="3" t="e">
+        <f>AVERAGE(R42,R41,R40,R39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U43" s="3" t="e">
+        <f>AVERAGE(S42,S41,S40,S39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V43" s="3" t="e">
+        <f>AVERAGE(Q39,Q40,Q41,Q42)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G44" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="L44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="U44" s="17"/>
+      <c r="V44" s="18"/>
+    </row>
+    <row r="45" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="L45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="31"/>
+    </row>
+    <row r="46" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="31"/>
+    </row>
+    <row r="47" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="L47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="33"/>
+    </row>
+    <row r="48" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="3" t="e">
+        <f>AVERAGE(R47,R46,R45,R44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U48" s="3" t="e">
+        <f>AVERAGE(S44,S45,S46,S47)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V48" s="3" t="e">
+        <f>AVERAGE(Q44,Q45,Q46,Q47)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G49" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+    </row>
+    <row r="50" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G51" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+    </row>
+    <row r="52" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G52" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+    </row>
+    <row r="53" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G53" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+    </row>
+    <row r="54" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G54" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+    </row>
+    <row r="55" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="K55" s="7"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+    </row>
+    <row r="56" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="K56" s="7"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+    </row>
+    <row r="57" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K57" s="7"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+    </row>
+    <row r="58" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+    </row>
+    <row r="59" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G59" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+    </row>
+    <row r="60" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+    </row>
+    <row r="61" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G61" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+    </row>
+    <row r="62" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G62" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G63" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+    </row>
+    <row r="64" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G64" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="T39:V42"/>
+    <mergeCell ref="T44:V47"/>
+    <mergeCell ref="L2:V2"/>
+    <mergeCell ref="T4:V7"/>
+    <mergeCell ref="T9:V12"/>
+    <mergeCell ref="T14:V17"/>
+    <mergeCell ref="T19:V22"/>
+    <mergeCell ref="T24:V27"/>
+    <mergeCell ref="T29:V32"/>
+    <mergeCell ref="T34:V37"/>
+    <mergeCell ref="L43:S43"/>
+    <mergeCell ref="L48:S48"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L18:S18"/>
+    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="L28:S28"/>
+    <mergeCell ref="L33:S33"/>
+    <mergeCell ref="L38:S38"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="L8:S8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632B34C-613D-4C31-9A54-FD8E198389BA}">
+  <dimension ref="C3:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="10">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="36">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="36">
+        <v>0.03</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="36">
+        <v>0.06</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Experiments .xlsx
+++ b/Experiments .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f88332955ad48600/Documents/GitHub/COMP3004-Video-Streaming/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrew2\Documents\GitHub\COMP3004-Video-Streaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="577" documentId="13_ncr:1_{CA5E7FB9-4852-488A-8D55-CCC282691222}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{273E5D74-19A4-4137-8952-AC86472F4E91}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26166346-5752-44F6-B6F7-E8311E3874DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A0187C2B-7DBE-4E8F-8150-6C604E7E9350}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A0187C2B-7DBE-4E8F-8150-6C604E7E9350}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Experiments" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="111">
   <si>
     <t>High Bandwidth - 5Mb</t>
   </si>
@@ -122,12 +122,6 @@
     <t>Initail Delay</t>
   </si>
   <si>
-    <t xml:space="preserve">Buffer frequency </t>
-  </si>
-  <si>
-    <t>Buffer duration</t>
-  </si>
-  <si>
     <t>0 ms</t>
   </si>
   <si>
@@ -278,9 +272,6 @@
     <t>Experiment 3.3 --&gt; 10Mbps - 0ms - 6%</t>
   </si>
   <si>
-    <t>Average Buffer Duration</t>
-  </si>
-  <si>
     <t>Objective + DASH Metrics</t>
   </si>
   <si>
@@ -353,10 +344,31 @@
     <t>MOS Key</t>
   </si>
   <si>
-    <t>Average Initial Delay</t>
-  </si>
-  <si>
-    <t>sudo</t>
+    <t>Tested Average Buffer Length</t>
+  </si>
+  <si>
+    <t>Tested Average Initial Delay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Average Buffer frequency </t>
+  </si>
+  <si>
+    <t>Experiment 1.3 --&gt; 1Mbps - 0ms - 8%</t>
+  </si>
+  <si>
+    <t>Experiment 1.2 --&gt; 1Mbps - 0ms - 4%</t>
+  </si>
+  <si>
+    <t>Experiment 2.2 --&gt; 5Mbps - 0ms - 4%</t>
+  </si>
+  <si>
+    <t>Experiment 2.3 --&gt; 5Mbps - 0ms - 8%</t>
+  </si>
+  <si>
+    <t>Experiment 3.2 --&gt; 10Mbps - 0ms - 4%</t>
+  </si>
+  <si>
+    <t>Experiment 3.3 --&gt; 10Mbps - 0ms - 8%</t>
   </si>
 </sst>
 </file>
@@ -555,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -565,17 +577,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -587,25 +631,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,29 +646,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -960,16 +973,16 @@
       <selection activeCell="B7" sqref="B7:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -980,50 +993,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1034,57 +1047,57 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -1095,52 +1108,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1155,91 +1168,88 @@
   <dimension ref="G2:V64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="S24" sqref="S24:U27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" customWidth="1"/>
-    <col min="16" max="17" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:22" x14ac:dyDescent="0.3">
-      <c r="G2" s="14" t="s">
+    <row r="2" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="L2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="16"/>
-    </row>
-    <row r="3" spans="7:22" x14ac:dyDescent="0.3">
-      <c r="G3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="L2" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="38"/>
+    </row>
+    <row r="3" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
       <c r="L3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
@@ -1247,13 +1257,13 @@
         <v>27</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1261,37 +1271,33 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="U4" s="17"/>
-      <c r="V4" s="18"/>
-    </row>
-    <row r="5" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" s="20"/>
+      <c r="U4" s="21"/>
+    </row>
+    <row r="5" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="31"/>
-    </row>
-    <row r="6" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="R5" s="3"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="24"/>
+    </row>
+    <row r="6" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G6" s="3" t="s">
         <v>24</v>
       </c>
@@ -1299,7 +1305,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1307,18 +1313,17 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="31"/>
-    </row>
-    <row r="7" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="24"/>
+    </row>
+    <row r="7" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1326,38 +1331,36 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="33"/>
-    </row>
-    <row r="8" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S7" s="25"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="27"/>
+    </row>
+    <row r="8" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="23" t="e">
+      <c r="L8" s="33"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="14" t="e">
+        <f>AVERAGE(P4,P5,P6,P7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T8" s="14" t="e">
+        <f>AVERAGE(Q4,Q5,Q6,Q7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U8" s="3" t="e">
         <f>AVERAGE(R4,R5,R6,R7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U8" s="23" t="e">
-        <f>AVERAGE(S4,S5,S6,S7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V8" s="3" t="e">
-        <f>AVERAGE(Q4,Q5,Q6,Q7)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="7:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1365,7 +1368,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1373,16 +1376,15 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="U9" s="17"/>
-      <c r="V9" s="18"/>
-    </row>
-    <row r="10" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S9" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="T9" s="20"/>
+      <c r="U9" s="21"/>
+    </row>
+    <row r="10" spans="7:22" x14ac:dyDescent="0.25">
       <c r="L10" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1390,20 +1392,19 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="31"/>
-    </row>
-    <row r="11" spans="7:22" x14ac:dyDescent="0.3">
-      <c r="G11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="24"/>
+    </row>
+    <row r="11" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G11" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
       <c r="L11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1411,18 +1412,17 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="31"/>
-    </row>
-    <row r="12" spans="7:22" x14ac:dyDescent="0.3">
-      <c r="G12" s="13"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="24"/>
+    </row>
+    <row r="12" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G12" s="10"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
       <c r="L12" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1430,38 +1430,36 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="33"/>
-    </row>
-    <row r="13" spans="7:22" x14ac:dyDescent="0.3">
-      <c r="G13" s="13"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="16"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="27"/>
+    </row>
+    <row r="13" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G13" s="10"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="3" t="e">
+        <f>AVERAGE(P9,P10,P11,P12)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T13" s="3" t="e">
+        <f>AVERAGE(Q9,Q10,Q11,Q12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" s="3" t="e">
         <f>AVERAGE(R9,R10,R11,R12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="3" t="e">
-        <f>AVERAGE(S9,S10,S11,S12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="3" t="e">
-        <f>AVERAGE(Q9,Q10,Q11,Q12)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="7:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1469,13 +1467,13 @@
         <v>27</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1483,22 +1481,21 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="U14" s="17"/>
-      <c r="V14" s="18"/>
-    </row>
-    <row r="15" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S14" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="T14" s="20"/>
+      <c r="U14" s="21"/>
+    </row>
+    <row r="15" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1506,20 +1503,19 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="31"/>
-    </row>
-    <row r="16" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S15" s="22"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="24"/>
+    </row>
+    <row r="16" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1527,18 +1523,17 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="31"/>
-    </row>
-    <row r="17" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S16" s="22"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="24"/>
+    </row>
+    <row r="17" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1546,46 +1541,44 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="33"/>
-    </row>
-    <row r="18" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S17" s="25"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="27"/>
+    </row>
+    <row r="18" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="16"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="3" t="e">
+        <f>AVERAGE(P14,P15,P16,P17)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T18" s="3" t="e">
+        <f>AVERAGE(Q14,Q15,Q16,Q17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U18" s="3" t="e">
         <f>AVERAGE(R14,R15,R16,R17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U18" s="3" t="e">
-        <f>AVERAGE(S14,S15,S16,S17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V18" s="3" t="e">
-        <f>AVERAGE(Q14,Q15,Q16,Q17)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="7:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G19" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -1593,20 +1586,19 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="U19" s="17"/>
-      <c r="V19" s="18"/>
-    </row>
-    <row r="20" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S19" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="T19" s="20"/>
+      <c r="U19" s="21"/>
+    </row>
+    <row r="20" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -1614,12 +1606,11 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="31"/>
-    </row>
-    <row r="21" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S20" s="22"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="24"/>
+    </row>
+    <row r="21" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1627,7 +1618,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -1635,18 +1626,17 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="31"/>
-    </row>
-    <row r="22" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S21" s="22"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="24"/>
+    </row>
+    <row r="22" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -1654,38 +1644,36 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="33"/>
-    </row>
-    <row r="23" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S22" s="25"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="27"/>
+    </row>
+    <row r="23" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="16"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="3" t="e">
+        <f>AVERAGE(P19,P20,P21,P22)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T23" s="3" t="e">
+        <f>AVERAGE(Q19,Q20,Q21,Q22)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U23" s="3" t="e">
         <f>AVERAGE(R19,R20,R21,R22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U23" s="3" t="e">
-        <f>AVERAGE(S19,S20,S21,S22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V23" s="3" t="e">
-        <f>AVERAGE(Q19,Q20,Q21,Q22)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="7:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G24" s="4">
         <v>0</v>
       </c>
@@ -1693,7 +1681,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -1701,14 +1689,13 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="U24" s="17"/>
-      <c r="V24" s="18"/>
-    </row>
-    <row r="25" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S24" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="T24" s="20"/>
+      <c r="U24" s="21"/>
+    </row>
+    <row r="25" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G25" s="4">
         <v>0.03</v>
       </c>
@@ -1716,7 +1703,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -1724,12 +1711,11 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="31"/>
-    </row>
-    <row r="26" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S25" s="22"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="24"/>
+    </row>
+    <row r="26" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G26" s="4">
         <v>0.06</v>
       </c>
@@ -1737,7 +1723,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -1745,18 +1731,17 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="31"/>
-    </row>
-    <row r="27" spans="7:22" x14ac:dyDescent="0.3">
-      <c r="G27" s="20"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="24"/>
+    </row>
+    <row r="27" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G27" s="12"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="L27" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -1764,40 +1749,38 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="33"/>
-    </row>
-    <row r="28" spans="7:22" x14ac:dyDescent="0.3">
-      <c r="G28" s="20"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="27"/>
+    </row>
+    <row r="28" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G28" s="12"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="16"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="3" t="e">
+        <f>AVERAGE(P24,P25,P26,P27)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T28" s="3" t="e">
+        <f>AVERAGE(Q24,Q25,Q26,Q27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" s="3" t="e">
         <f>AVERAGE(R24,R25,R26,R27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U28" s="3" t="e">
-        <f>AVERAGE(S27,S26,S25,S24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V28" s="3" t="e">
-        <f>AVERAGE(Q24,Q25,Q26,Q27)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="7:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="7:21" x14ac:dyDescent="0.25">
       <c r="L29" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -1805,16 +1788,15 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="U29" s="17"/>
-      <c r="V29" s="18"/>
-    </row>
-    <row r="30" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S29" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="T29" s="20"/>
+      <c r="U29" s="21"/>
+    </row>
+    <row r="30" spans="7:21" x14ac:dyDescent="0.25">
       <c r="L30" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -1822,12 +1804,11 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="31"/>
-    </row>
-    <row r="31" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S30" s="22"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="24"/>
+    </row>
+    <row r="31" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G31" s="3" t="s">
         <v>21</v>
       </c>
@@ -1835,13 +1816,13 @@
         <v>27</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -1849,18 +1830,17 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="31"/>
-    </row>
-    <row r="32" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S31" s="22"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="24"/>
+    </row>
+    <row r="32" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="L32" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -1868,46 +1848,44 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="33"/>
-    </row>
-    <row r="33" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S32" s="25"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="27"/>
+    </row>
+    <row r="33" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="16"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="3" t="e">
+        <f>AVERAGE(P29,P30,P31,P32)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T33" s="3" t="e">
-        <f>AVERAGE(R32,R31,R30,R29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U33" s="3" t="e">
-        <f>AVERAGE(S32,S31,S30,S29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V33" s="3" t="e">
         <f>AVERAGE(Q29,Q30,Q31,Q32)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="34" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="U33" s="3" t="e">
+        <f>AVERAGE(R29,R30,R31,R32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G34" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="L34" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -1915,22 +1893,21 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="U34" s="17"/>
-      <c r="V34" s="18"/>
-    </row>
-    <row r="35" spans="7:22" x14ac:dyDescent="0.3">
-      <c r="G35" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
+      <c r="S34" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="T34" s="20"/>
+      <c r="U34" s="21"/>
+    </row>
+    <row r="35" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G35" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
       <c r="L35" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -1938,12 +1915,11 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="31"/>
-    </row>
-    <row r="36" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S35" s="22"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="24"/>
+    </row>
+    <row r="36" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G36" s="4">
         <v>0</v>
       </c>
@@ -1951,7 +1927,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="L36" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -1959,18 +1935,17 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="31"/>
-    </row>
-    <row r="37" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S36" s="22"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="24"/>
+    </row>
+    <row r="37" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G37" s="4"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="L37" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -1978,46 +1953,44 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="33"/>
-    </row>
-    <row r="38" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S37" s="25"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="27"/>
+    </row>
+    <row r="38" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G38" s="4"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="16"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="3" t="e">
+        <f>AVERAGE(P34,P35,P36,P37)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T38" s="3" t="e">
-        <f>AVERAGE(R37,R36,R35,R34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U38" s="3" t="e">
-        <f>AVERAGE(S37,S36,S35,S34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V38" s="3" t="e">
         <f>AVERAGE(Q34,Q35,Q36,Q37)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="39" spans="7:22" x14ac:dyDescent="0.3">
-      <c r="G39" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
+      <c r="U38" s="3" t="e">
+        <f>AVERAGE(R34,R35,R36,R37)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G39" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
       <c r="L39" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -2025,14 +1998,13 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="U39" s="17"/>
-      <c r="V39" s="18"/>
-    </row>
-    <row r="40" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S39" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="T39" s="20"/>
+      <c r="U39" s="21"/>
+    </row>
+    <row r="40" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G40" s="4">
         <v>0.03</v>
       </c>
@@ -2040,7 +2012,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="L40" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -2048,20 +2020,19 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="31"/>
-    </row>
-    <row r="41" spans="7:22" x14ac:dyDescent="0.3">
-      <c r="G41" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="24"/>
+    </row>
+    <row r="41" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G41" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
       <c r="L41" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -2069,18 +2040,17 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="31"/>
-    </row>
-    <row r="42" spans="7:22" x14ac:dyDescent="0.3">
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="24"/>
+    </row>
+    <row r="42" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
       <c r="L42" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -2088,38 +2058,36 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="33"/>
-    </row>
-    <row r="43" spans="7:22" x14ac:dyDescent="0.3">
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="16"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="27"/>
+    </row>
+    <row r="43" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="3" t="e">
+        <f>AVERAGE(P39,P40,P41,P42)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T43" s="3" t="e">
-        <f>AVERAGE(R42,R41,R40,R39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U43" s="3" t="e">
-        <f>AVERAGE(S42,S41,S40,S39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V43" s="3" t="e">
         <f>AVERAGE(Q39,Q40,Q41,Q42)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="44" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="U43" s="3" t="e">
+        <f>AVERAGE(R39,R40,R41,R42)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G44" s="4">
         <v>0.06</v>
       </c>
@@ -2127,7 +2095,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="L44" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -2135,16 +2103,15 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="U44" s="17"/>
-      <c r="V44" s="18"/>
-    </row>
-    <row r="45" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S44" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="T44" s="20"/>
+      <c r="U44" s="21"/>
+    </row>
+    <row r="45" spans="7:21" x14ac:dyDescent="0.25">
       <c r="L45" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -2152,12 +2119,11 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="31"/>
-    </row>
-    <row r="46" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S45" s="22"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="24"/>
+    </row>
+    <row r="46" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G46" s="3" t="s">
         <v>21</v>
       </c>
@@ -2165,13 +2131,13 @@
         <v>27</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -2179,18 +2145,17 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="31"/>
-    </row>
-    <row r="47" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S46" s="22"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="24"/>
+    </row>
+    <row r="47" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -2198,48 +2163,46 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="33"/>
-    </row>
-    <row r="48" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S47" s="25"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="27"/>
+    </row>
+    <row r="48" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G48" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="16"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="3" t="e">
+        <f>AVERAGE(P44,P45,P46,P47)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T48" s="3" t="e">
-        <f>AVERAGE(R47,R46,R45,R44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U48" s="3" t="e">
-        <f>AVERAGE(S44,S45,S46,S47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V48" s="3" t="e">
         <f>AVERAGE(Q44,Q45,Q46,Q47)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="49" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="G49" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-    </row>
-    <row r="50" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="U48" s="3" t="e">
+        <f>AVERAGE(R44,R45,R46,R47)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G49" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G50" s="4">
         <v>0</v>
       </c>
@@ -2247,15 +2210,15 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="G51" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-    </row>
-    <row r="52" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G51" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+    </row>
+    <row r="52" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G52" s="4">
         <v>0.03</v>
       </c>
@@ -2270,13 +2233,13 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="G53" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="37"/>
+    <row r="53" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G53" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="18"/>
       <c r="K53" s="7"/>
       <c r="L53" s="8"/>
       <c r="M53" s="7"/>
@@ -2285,7 +2248,7 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G54" s="4">
         <v>0.06</v>
       </c>
@@ -2300,7 +2263,7 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:17" x14ac:dyDescent="0.25">
       <c r="K55" s="7"/>
       <c r="L55" s="8"/>
       <c r="M55" s="7"/>
@@ -2309,7 +2272,7 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
     </row>
-    <row r="56" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:17" x14ac:dyDescent="0.25">
       <c r="K56" s="7"/>
       <c r="L56" s="8"/>
       <c r="M56" s="7"/>
@@ -2318,7 +2281,7 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
     </row>
-    <row r="57" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G57" s="3" t="s">
         <v>21</v>
       </c>
@@ -2326,10 +2289,10 @@
         <v>27</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="8"/>
@@ -2339,7 +2302,7 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
     </row>
-    <row r="58" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G58" s="3" t="s">
         <v>26</v>
       </c>
@@ -2354,13 +2317,13 @@
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
     </row>
-    <row r="59" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="G59" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="37"/>
+    <row r="59" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G59" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="18"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
@@ -2369,7 +2332,7 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G60" s="4">
         <v>0</v>
       </c>
@@ -2384,15 +2347,15 @@
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="G61" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-    </row>
-    <row r="62" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G61" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+    </row>
+    <row r="62" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G62" s="4">
         <v>0.03</v>
       </c>
@@ -2400,15 +2363,15 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="G63" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-    </row>
-    <row r="64" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G63" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+    </row>
+    <row r="64" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G64" s="4">
         <v>0.06</v>
       </c>
@@ -2418,31 +2381,31 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="T39:V42"/>
-    <mergeCell ref="T44:V47"/>
-    <mergeCell ref="L2:V2"/>
-    <mergeCell ref="T4:V7"/>
-    <mergeCell ref="T9:V12"/>
-    <mergeCell ref="T14:V17"/>
-    <mergeCell ref="T19:V22"/>
-    <mergeCell ref="T24:V27"/>
-    <mergeCell ref="T29:V32"/>
-    <mergeCell ref="T34:V37"/>
-    <mergeCell ref="L43:S43"/>
-    <mergeCell ref="L48:S48"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L18:S18"/>
-    <mergeCell ref="L23:S23"/>
-    <mergeCell ref="L28:S28"/>
-    <mergeCell ref="L33:S33"/>
-    <mergeCell ref="L38:S38"/>
+    <mergeCell ref="S44:U47"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G3:J3"/>
-    <mergeCell ref="L8:S8"/>
+    <mergeCell ref="L2:U2"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="S4:U7"/>
+    <mergeCell ref="S9:U12"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="L23:R23"/>
+    <mergeCell ref="L28:R28"/>
+    <mergeCell ref="L33:R33"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="L43:R43"/>
+    <mergeCell ref="L48:R48"/>
+    <mergeCell ref="S14:U17"/>
+    <mergeCell ref="S19:U22"/>
+    <mergeCell ref="S24:U27"/>
+    <mergeCell ref="S29:U32"/>
+    <mergeCell ref="S34:U37"/>
+    <mergeCell ref="S39:U42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2450,61 +2413,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632B34C-613D-4C31-9A54-FD8E198389BA}">
   <dimension ref="C3:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F3" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="34" t="s">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="21" t="s">
-        <v>91</v>
+      <c r="D4" s="37"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="3">
         <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
@@ -2514,13 +2477,13 @@
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
@@ -2530,177 +2493,179 @@
         <v>3</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>2</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="35"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="37"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="36">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="17">
         <v>0</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" s="36">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="17">
         <v>0.03</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="36">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="17">
         <v>0.06</v>
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="3" t="s">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="28"/>
+      <c r="D25" s="30"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="3" t="s">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="3" t="s">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C27" s="3" t="s">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="28"/>
+      <c r="D29" s="30"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="3" t="s">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="3" t="s">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D32" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Experiments .xlsx
+++ b/Experiments .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrew2\Documents\GitHub\COMP3004-Video-Streaming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f88332955ad48600/Documents/GitHub/COMP3004-Video-Streaming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26166346-5752-44F6-B6F7-E8311E3874DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="366" documentId="13_ncr:1_{26166346-5752-44F6-B6F7-E8311E3874DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{493BD8D5-F8B8-42E5-873F-01EFA432B766}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A0187C2B-7DBE-4E8F-8150-6C604E7E9350}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A0187C2B-7DBE-4E8F-8150-6C604E7E9350}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Experiments" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
   <si>
     <t>High Bandwidth - 5Mb</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Starting Bitrate</t>
   </si>
   <si>
-    <t>Average Buffer Length</t>
-  </si>
-  <si>
     <t>Constant Bandwidth = 5Mbps</t>
   </si>
   <si>
@@ -248,30 +245,12 @@
     <t>Experiment 1.1 --&gt; 1Mbps - 0ms - 0%</t>
   </si>
   <si>
-    <t>Experiment 1.2 --&gt; 1Mbps - 0ms - 3%</t>
-  </si>
-  <si>
-    <t>Experiment 1.3 --&gt; 1Mbps - 0ms - 6%</t>
-  </si>
-  <si>
     <t>Experiment 2.1 --&gt; 5Mbps - 0ms - 0%</t>
   </si>
   <si>
-    <t>Experiment 2.2 --&gt; 5Mbps - 0ms - 3%</t>
-  </si>
-  <si>
-    <t>Experiment 2.3 --&gt; 5Mbps - 0ms - 6%</t>
-  </si>
-  <si>
     <t>Experiment 3.1 --&gt; 10Mbps - 0ms - 0%</t>
   </si>
   <si>
-    <t>Experiment 3.2 --&gt; 10Mbps - 0ms - 3%</t>
-  </si>
-  <si>
-    <t>Experiment 3.3 --&gt; 10Mbps - 0ms - 6%</t>
-  </si>
-  <si>
     <t>Objective + DASH Metrics</t>
   </si>
   <si>
@@ -350,9 +329,6 @@
     <t>Tested Average Initial Delay</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Average Buffer frequency </t>
-  </si>
-  <si>
     <t>Experiment 1.3 --&gt; 1Mbps - 0ms - 8%</t>
   </si>
   <si>
@@ -369,6 +345,15 @@
   </si>
   <si>
     <t>Experiment 3.3 --&gt; 10Mbps - 0ms - 8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested Average Buffer frequency </t>
+  </si>
+  <si>
+    <t>Initail Delay (ms)</t>
+  </si>
+  <si>
+    <t>Average Buffer Length (s)</t>
   </si>
 </sst>
 </file>
@@ -384,7 +369,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +391,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -588,13 +585,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -622,6 +619,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -629,9 +629,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -652,7 +649,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,16 +972,16 @@
       <selection activeCell="B7" sqref="B7:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -993,50 +992,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1047,57 +1046,57 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -1108,52 +1107,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1167,38 +1166,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B747B0F1-CFAD-4F10-B36A-D0AE4528B4AC}">
   <dimension ref="G2:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24:U27"/>
+    <sheetView tabSelected="1" topLeftCell="H8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="16" max="16" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="G2" s="28" t="s">
+    <row r="2" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
       <c r="L2" s="32" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M2" s="32"/>
       <c r="N2" s="32"/>
@@ -1209,17 +1208,17 @@
       <c r="S2" s="32"/>
       <c r="T2" s="32"/>
       <c r="U2" s="32"/>
-      <c r="V2" s="38"/>
-    </row>
-    <row r="3" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="V2" s="18"/>
+    </row>
+    <row r="3" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G3" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
       <c r="L3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>31</v>
@@ -1231,25 +1230,25 @@
         <v>32</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="S3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="T3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="T3" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="U3" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="7:22" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
@@ -1257,47 +1256,71 @@
         <v>27</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1759</v>
+      </c>
+      <c r="N4" s="2">
+        <v>600</v>
+      </c>
+      <c r="O4" s="2">
+        <v>600</v>
+      </c>
+      <c r="P4" s="2">
+        <v>139</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>14.8</v>
+      </c>
       <c r="S4" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T4" s="20"/>
       <c r="U4" s="21"/>
     </row>
-    <row r="5" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1799</v>
+      </c>
+      <c r="N5" s="2">
+        <v>600</v>
+      </c>
+      <c r="O5" s="2">
+        <v>600</v>
+      </c>
+      <c r="P5" s="2">
+        <v>230</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>14.9</v>
+      </c>
       <c r="S5" s="22"/>
       <c r="T5" s="23"/>
       <c r="U5" s="24"/>
     </row>
-    <row r="6" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G6" s="3" t="s">
         <v>24</v>
       </c>
@@ -1305,37 +1328,61 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1926</v>
+      </c>
+      <c r="N6" s="2">
+        <v>600</v>
+      </c>
+      <c r="O6" s="2">
+        <v>600</v>
+      </c>
+      <c r="P6" s="2">
+        <v>183</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>14.6</v>
+      </c>
       <c r="S6" s="22"/>
       <c r="T6" s="23"/>
       <c r="U6" s="24"/>
     </row>
-    <row r="7" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1928</v>
+      </c>
+      <c r="N7" s="2">
+        <v>600</v>
+      </c>
+      <c r="O7" s="2">
+        <v>600</v>
+      </c>
+      <c r="P7" s="2">
+        <v>255</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>14.8</v>
+      </c>
       <c r="S7" s="25"/>
       <c r="T7" s="26"/>
       <c r="U7" s="27"/>
     </row>
-    <row r="8" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1347,20 +1394,20 @@
       <c r="P8" s="34"/>
       <c r="Q8" s="34"/>
       <c r="R8" s="35"/>
-      <c r="S8" s="14" t="e">
+      <c r="S8" s="2">
         <f>AVERAGE(P4,P5,P6,P7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T8" s="14" t="e">
+        <v>201.75</v>
+      </c>
+      <c r="T8" s="2">
         <f>AVERAGE(Q4,Q5,Q6,Q7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U8" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
         <f>AVERAGE(R4,R5,R6,R7)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="7:22" x14ac:dyDescent="0.25">
+        <v>14.775000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1368,98 +1415,146 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1780</v>
+      </c>
+      <c r="N9" s="2">
+        <v>600</v>
+      </c>
+      <c r="O9" s="2">
+        <v>600</v>
+      </c>
+      <c r="P9" s="2">
+        <v>259</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>13.32</v>
+      </c>
       <c r="S9" s="19" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="T9" s="20"/>
       <c r="U9" s="21"/>
     </row>
-    <row r="10" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:22" x14ac:dyDescent="0.3">
       <c r="L10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1910</v>
+      </c>
+      <c r="N10" s="2">
+        <v>600</v>
+      </c>
+      <c r="O10" s="2">
+        <v>600</v>
+      </c>
+      <c r="P10" s="2">
+        <v>263</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>13.27</v>
+      </c>
       <c r="S10" s="22"/>
       <c r="T10" s="23"/>
       <c r="U10" s="24"/>
     </row>
-    <row r="11" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="G11" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+    <row r="11" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G11" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
       <c r="L11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1957</v>
+      </c>
+      <c r="N11" s="2">
+        <v>600</v>
+      </c>
+      <c r="O11" s="2">
+        <v>600</v>
+      </c>
+      <c r="P11" s="2">
+        <v>260</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>13.2</v>
+      </c>
       <c r="S11" s="22"/>
       <c r="T11" s="23"/>
       <c r="U11" s="24"/>
     </row>
-    <row r="12" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G12" s="10"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
       <c r="L12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2009</v>
+      </c>
+      <c r="N12" s="2">
+        <v>600</v>
+      </c>
+      <c r="O12" s="2">
+        <v>600</v>
+      </c>
+      <c r="P12" s="2">
+        <v>399</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>13.2</v>
+      </c>
       <c r="S12" s="25"/>
       <c r="T12" s="26"/>
       <c r="U12" s="27"/>
     </row>
-    <row r="13" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G13" s="10"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="3" t="e">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="2">
         <f>AVERAGE(P9,P10,P11,P12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T13" s="3" t="e">
+        <v>295.25</v>
+      </c>
+      <c r="T13" s="2">
         <f>AVERAGE(Q9,Q10,Q11,Q12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U13" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
         <f>AVERAGE(R9,R10,R11,R12)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="7:22" x14ac:dyDescent="0.25">
+        <v>13.247499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1467,27 +1562,39 @@
         <v>27</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1680</v>
+      </c>
+      <c r="N14" s="2">
+        <v>600</v>
+      </c>
+      <c r="O14" s="2">
+        <v>600</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1727</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>8</v>
+      </c>
+      <c r="R14" s="2">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="S14" s="19" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="T14" s="20"/>
       <c r="U14" s="21"/>
     </row>
-    <row r="15" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1495,19 +1602,31 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1407</v>
+      </c>
+      <c r="N15" s="2">
+        <v>600</v>
+      </c>
+      <c r="O15" s="2">
+        <v>600</v>
+      </c>
+      <c r="P15" s="2">
+        <v>15167</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>10</v>
+      </c>
+      <c r="R15" s="2">
+        <v>3.8</v>
+      </c>
       <c r="S15" s="22"/>
       <c r="T15" s="23"/>
       <c r="U15" s="24"/>
     </row>
-    <row r="16" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G16" s="3" t="s">
         <v>29</v>
       </c>
@@ -1515,62 +1634,86 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1537</v>
+      </c>
+      <c r="N16" s="2">
+        <v>600</v>
+      </c>
+      <c r="O16" s="2">
+        <v>600</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1212</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>14</v>
+      </c>
+      <c r="R16" s="2">
+        <v>3.5</v>
+      </c>
       <c r="S16" s="22"/>
       <c r="T16" s="23"/>
       <c r="U16" s="24"/>
     </row>
-    <row r="17" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1527</v>
+      </c>
+      <c r="N17" s="2">
+        <v>600</v>
+      </c>
+      <c r="O17" s="2">
+        <v>600</v>
+      </c>
+      <c r="P17" s="2">
+        <v>294</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>12</v>
+      </c>
+      <c r="R17" s="2">
+        <v>3.9</v>
+      </c>
       <c r="S17" s="25"/>
       <c r="T17" s="26"/>
       <c r="U17" s="27"/>
     </row>
-    <row r="18" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="3" t="e">
+      <c r="L18" s="29"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="2">
         <f>AVERAGE(P14,P15,P16,P17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T18" s="3" t="e">
+        <v>4600</v>
+      </c>
+      <c r="T18" s="2">
         <f>AVERAGE(Q14,Q15,Q16,Q17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U18" s="3" t="e">
+        <v>11</v>
+      </c>
+      <c r="U18" s="2">
         <f>AVERAGE(R14,R15,R16,R17)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="7:21" x14ac:dyDescent="0.25">
+        <v>3.9499999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
@@ -1578,39 +1721,63 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="M19" s="38">
+        <v>1739</v>
+      </c>
+      <c r="N19" s="38">
+        <v>2400</v>
+      </c>
+      <c r="O19" s="38">
+        <v>600</v>
+      </c>
+      <c r="P19" s="38">
+        <v>375</v>
+      </c>
+      <c r="Q19" s="38">
+        <v>0</v>
+      </c>
+      <c r="R19" s="38">
+        <v>17.399999999999999</v>
+      </c>
       <c r="S19" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T19" s="20"/>
       <c r="U19" s="21"/>
     </row>
-    <row r="20" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="M20" s="38">
+        <v>1876</v>
+      </c>
+      <c r="N20" s="38">
+        <v>2400</v>
+      </c>
+      <c r="O20" s="38">
+        <v>1200</v>
+      </c>
+      <c r="P20" s="38">
+        <v>387</v>
+      </c>
+      <c r="Q20" s="38">
+        <v>0</v>
+      </c>
+      <c r="R20" s="38">
+        <v>17.600000000000001</v>
+      </c>
       <c r="S20" s="22"/>
       <c r="T20" s="23"/>
       <c r="U20" s="24"/>
     </row>
-    <row r="21" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1618,62 +1785,86 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="M21" s="38">
+        <v>1627</v>
+      </c>
+      <c r="N21" s="38">
+        <v>2400</v>
+      </c>
+      <c r="O21" s="38">
+        <v>1200</v>
+      </c>
+      <c r="P21" s="38">
+        <v>367</v>
+      </c>
+      <c r="Q21" s="38">
+        <v>0</v>
+      </c>
+      <c r="R21" s="38">
+        <v>18.2</v>
+      </c>
       <c r="S21" s="22"/>
       <c r="T21" s="23"/>
       <c r="U21" s="24"/>
     </row>
-    <row r="22" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="M22" s="38">
+        <v>1895</v>
+      </c>
+      <c r="N22" s="38">
+        <v>2400</v>
+      </c>
+      <c r="O22" s="38">
+        <v>1200</v>
+      </c>
+      <c r="P22" s="38">
+        <v>504</v>
+      </c>
+      <c r="Q22" s="38">
+        <v>0</v>
+      </c>
+      <c r="R22" s="38">
+        <v>18</v>
+      </c>
       <c r="S22" s="25"/>
       <c r="T22" s="26"/>
       <c r="U22" s="27"/>
     </row>
-    <row r="23" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="3" t="e">
+      <c r="L23" s="29"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="14">
         <f>AVERAGE(P19,P20,P21,P22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T23" s="3" t="e">
+        <v>408.25</v>
+      </c>
+      <c r="T23" s="14">
         <f>AVERAGE(Q19,Q20,Q21,Q22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U23" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="U23" s="14">
         <f>AVERAGE(R19,R20,R21,R22)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="7:21" x14ac:dyDescent="0.25">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="24" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G24" s="4">
         <v>0</v>
       </c>
@@ -1681,21 +1872,33 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="M24" s="38">
+        <v>1906</v>
+      </c>
+      <c r="N24" s="38">
+        <v>2400</v>
+      </c>
+      <c r="O24" s="38">
+        <v>600</v>
+      </c>
+      <c r="P24" s="38">
+        <v>186</v>
+      </c>
+      <c r="Q24" s="38">
+        <v>3</v>
+      </c>
+      <c r="R24" s="38">
+        <v>14.8</v>
+      </c>
       <c r="S24" s="19" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="T24" s="20"/>
       <c r="U24" s="21"/>
     </row>
-    <row r="25" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G25" s="4">
         <v>0.03</v>
       </c>
@@ -1703,19 +1906,31 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="M25" s="38">
+        <v>1741</v>
+      </c>
+      <c r="N25" s="38">
+        <v>2400</v>
+      </c>
+      <c r="O25" s="38">
+        <v>600</v>
+      </c>
+      <c r="P25" s="38">
+        <v>461</v>
+      </c>
+      <c r="Q25" s="38">
+        <v>3</v>
+      </c>
+      <c r="R25" s="38">
+        <v>13.8</v>
+      </c>
       <c r="S25" s="22"/>
       <c r="T25" s="23"/>
       <c r="U25" s="24"/>
     </row>
-    <row r="26" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G26" s="4">
         <v>0.06</v>
       </c>
@@ -1723,92 +1938,140 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="M26" s="38">
+        <v>1880</v>
+      </c>
+      <c r="N26" s="38">
+        <v>2400</v>
+      </c>
+      <c r="O26" s="38">
+        <v>1200</v>
+      </c>
+      <c r="P26" s="38">
+        <v>345</v>
+      </c>
+      <c r="Q26" s="38">
+        <v>3</v>
+      </c>
+      <c r="R26" s="38">
+        <v>15.8</v>
+      </c>
       <c r="S26" s="22"/>
       <c r="T26" s="23"/>
       <c r="U26" s="24"/>
     </row>
-    <row r="27" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G27" s="12"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="L27" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="M27" s="38">
+        <v>1835</v>
+      </c>
+      <c r="N27" s="38">
+        <v>1200</v>
+      </c>
+      <c r="O27" s="38">
+        <v>600</v>
+      </c>
+      <c r="P27" s="38">
+        <v>256</v>
+      </c>
+      <c r="Q27" s="38">
+        <v>0</v>
+      </c>
+      <c r="R27" s="38">
+        <v>17.100000000000001</v>
+      </c>
       <c r="S27" s="25"/>
       <c r="T27" s="26"/>
       <c r="U27" s="27"/>
     </row>
-    <row r="28" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G28" s="12"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="3" t="e">
+      <c r="L28" s="29"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="14">
         <f>AVERAGE(P24,P25,P26,P27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="3" t="e">
+        <v>312</v>
+      </c>
+      <c r="T28" s="14">
         <f>AVERAGE(Q24,Q25,Q26,Q27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U28" s="3" t="e">
+        <v>2.25</v>
+      </c>
+      <c r="U28" s="14">
         <f>AVERAGE(R24,R25,R26,R27)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="7:21" x14ac:dyDescent="0.25">
+        <v>15.375000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="7:21" x14ac:dyDescent="0.3">
       <c r="L29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="M29" s="38">
+        <v>1611</v>
+      </c>
+      <c r="N29" s="38">
+        <v>600</v>
+      </c>
+      <c r="O29" s="38">
+        <v>600</v>
+      </c>
+      <c r="P29" s="38">
+        <v>242</v>
+      </c>
+      <c r="Q29" s="38">
+        <v>10</v>
+      </c>
+      <c r="R29" s="38">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="S29" s="19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="T29" s="20"/>
       <c r="U29" s="21"/>
     </row>
-    <row r="30" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:21" x14ac:dyDescent="0.3">
       <c r="L30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="M30" s="38">
+        <v>1788</v>
+      </c>
+      <c r="N30" s="38">
+        <v>600</v>
+      </c>
+      <c r="O30" s="38">
+        <v>600</v>
+      </c>
+      <c r="P30" s="38">
+        <v>635</v>
+      </c>
+      <c r="Q30" s="38">
+        <v>9</v>
+      </c>
+      <c r="R30" s="38">
+        <v>4.7</v>
+      </c>
       <c r="S30" s="22"/>
       <c r="T30" s="23"/>
       <c r="U30" s="24"/>
     </row>
-    <row r="31" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G31" s="3" t="s">
         <v>21</v>
       </c>
@@ -1816,110 +2079,158 @@
         <v>27</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="M31" s="38">
+        <v>1725</v>
+      </c>
+      <c r="N31" s="38">
+        <v>600</v>
+      </c>
+      <c r="O31" s="38">
+        <v>600</v>
+      </c>
+      <c r="P31" s="38">
+        <v>223</v>
+      </c>
+      <c r="Q31" s="38">
+        <v>7</v>
+      </c>
+      <c r="R31" s="38">
+        <v>6.4</v>
+      </c>
       <c r="S31" s="22"/>
       <c r="T31" s="23"/>
       <c r="U31" s="24"/>
     </row>
-    <row r="32" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="L32" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="M32" s="38">
+        <v>1413</v>
+      </c>
+      <c r="N32" s="38">
+        <v>600</v>
+      </c>
+      <c r="O32" s="38">
+        <v>600</v>
+      </c>
+      <c r="P32" s="38">
+        <v>188</v>
+      </c>
+      <c r="Q32" s="38">
+        <v>15</v>
+      </c>
+      <c r="R32" s="38">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="S32" s="25"/>
       <c r="T32" s="26"/>
       <c r="U32" s="27"/>
     </row>
-    <row r="33" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="3" t="e">
+      <c r="L33" s="29"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="14">
         <f>AVERAGE(P29,P30,P31,P32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T33" s="3" t="e">
+        <v>322</v>
+      </c>
+      <c r="T33" s="14">
         <f>AVERAGE(Q29,Q30,Q31,Q32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U33" s="3" t="e">
+        <v>10.25</v>
+      </c>
+      <c r="U33" s="14">
         <f>AVERAGE(R29,R30,R31,R32)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="7:21" x14ac:dyDescent="0.25">
+        <v>5.0750000000000011</v>
+      </c>
+    </row>
+    <row r="34" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="L34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="M34" s="39">
+        <v>1763</v>
+      </c>
+      <c r="N34" s="39">
+        <v>2400</v>
+      </c>
+      <c r="O34" s="39">
+        <v>2400</v>
+      </c>
+      <c r="P34" s="39">
+        <v>161</v>
+      </c>
+      <c r="Q34" s="39">
+        <v>0</v>
+      </c>
+      <c r="R34" s="39">
+        <v>25.1</v>
+      </c>
       <c r="S34" s="19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T34" s="20"/>
       <c r="U34" s="21"/>
     </row>
-    <row r="35" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G35" s="15" t="s">
+    <row r="35" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G35" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
       <c r="L35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="M35" s="39">
+        <v>1832</v>
+      </c>
+      <c r="N35" s="40">
+        <v>2400</v>
+      </c>
+      <c r="O35" s="39">
+        <v>2400</v>
+      </c>
+      <c r="P35" s="39">
+        <v>337</v>
+      </c>
+      <c r="Q35" s="39">
+        <v>0</v>
+      </c>
+      <c r="R35" s="39">
+        <v>25</v>
+      </c>
       <c r="S35" s="22"/>
       <c r="T35" s="23"/>
       <c r="U35" s="24"/>
     </row>
-    <row r="36" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G36" s="4">
         <v>0</v>
       </c>
@@ -1927,84 +2238,120 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="L36" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="M36" s="39">
+        <v>1825</v>
+      </c>
+      <c r="N36" s="39">
+        <v>2400</v>
+      </c>
+      <c r="O36" s="39">
+        <v>2400</v>
+      </c>
+      <c r="P36" s="39">
+        <v>279</v>
+      </c>
+      <c r="Q36" s="39">
+        <v>0</v>
+      </c>
+      <c r="R36" s="39">
+        <v>25.1</v>
+      </c>
       <c r="S36" s="22"/>
       <c r="T36" s="23"/>
       <c r="U36" s="24"/>
     </row>
-    <row r="37" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G37" s="4"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="L37" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="M37" s="39">
+        <v>1812</v>
+      </c>
+      <c r="N37" s="39">
+        <v>2400</v>
+      </c>
+      <c r="O37" s="39">
+        <v>2400</v>
+      </c>
+      <c r="P37" s="39">
+        <v>167</v>
+      </c>
+      <c r="Q37" s="39">
+        <v>0</v>
+      </c>
+      <c r="R37" s="39">
+        <v>25.3</v>
+      </c>
       <c r="S37" s="25"/>
       <c r="T37" s="26"/>
       <c r="U37" s="27"/>
     </row>
-    <row r="38" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G38" s="4"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="3" t="e">
+      <c r="L38" s="29"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="39">
         <f>AVERAGE(P34,P35,P36,P37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T38" s="3" t="e">
+        <v>236</v>
+      </c>
+      <c r="T38" s="39">
         <f>AVERAGE(Q34,Q35,Q36,Q37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U38" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="U38" s="39">
         <f>AVERAGE(R34,R35,R36,R37)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G39" s="15" t="s">
+        <v>25.125</v>
+      </c>
+    </row>
+    <row r="39" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G39" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
       <c r="L39" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="M39" s="39">
+        <v>1854</v>
+      </c>
+      <c r="N39" s="39">
+        <v>2400</v>
+      </c>
+      <c r="O39" s="39">
+        <v>1200</v>
+      </c>
+      <c r="P39" s="39">
+        <v>163</v>
+      </c>
+      <c r="Q39" s="39">
+        <v>5</v>
+      </c>
+      <c r="R39" s="39">
+        <v>13.25</v>
+      </c>
       <c r="S39" s="19" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="T39" s="20"/>
       <c r="U39" s="21"/>
     </row>
-    <row r="40" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G40" s="4">
         <v>0.03</v>
       </c>
@@ -2012,82 +2359,118 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="L40" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M40" s="39">
+        <v>1797</v>
+      </c>
+      <c r="N40" s="39">
+        <v>1200</v>
+      </c>
+      <c r="O40" s="39">
+        <v>1200</v>
+      </c>
+      <c r="P40" s="39">
+        <v>140</v>
+      </c>
+      <c r="Q40" s="39">
+        <v>0</v>
+      </c>
+      <c r="R40" s="39">
+        <v>17.04</v>
+      </c>
       <c r="S40" s="22"/>
       <c r="T40" s="23"/>
       <c r="U40" s="24"/>
     </row>
-    <row r="41" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G41" s="15" t="s">
+    <row r="41" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G41" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
       <c r="L41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="M41" s="39">
+        <v>1813</v>
+      </c>
+      <c r="N41" s="39">
+        <v>2400</v>
+      </c>
+      <c r="O41" s="39">
+        <v>600</v>
+      </c>
+      <c r="P41" s="39">
+        <v>461</v>
+      </c>
+      <c r="Q41" s="39">
+        <v>3</v>
+      </c>
+      <c r="R41" s="39">
+        <v>14.52</v>
+      </c>
       <c r="S41" s="22"/>
       <c r="T41" s="23"/>
       <c r="U41" s="24"/>
     </row>
-    <row r="42" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
+    <row r="42" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
       <c r="L42" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="M42" s="39">
+        <v>1759</v>
+      </c>
+      <c r="N42" s="39">
+        <v>2400</v>
+      </c>
+      <c r="O42" s="39">
+        <v>1200</v>
+      </c>
+      <c r="P42" s="39">
+        <v>515</v>
+      </c>
+      <c r="Q42" s="39">
+        <v>0</v>
+      </c>
+      <c r="R42" s="39">
+        <v>16.399999999999999</v>
+      </c>
       <c r="S42" s="25"/>
       <c r="T42" s="26"/>
       <c r="U42" s="27"/>
     </row>
-    <row r="43" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="3" t="e">
+    <row r="43" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="39">
         <f>AVERAGE(P39,P40,P41,P42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T43" s="3" t="e">
+        <v>319.75</v>
+      </c>
+      <c r="T43" s="39">
         <f>AVERAGE(Q39,Q40,Q41,Q42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U43" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="U43" s="39">
         <f>AVERAGE(R39,R40,R41,R42)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="7:21" x14ac:dyDescent="0.25">
+        <v>15.3025</v>
+      </c>
+    </row>
+    <row r="44" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G44" s="4">
         <v>0.06</v>
       </c>
@@ -2095,35 +2478,59 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="L44" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="M44" s="39">
+        <v>1625</v>
+      </c>
+      <c r="N44" s="39">
+        <v>600</v>
+      </c>
+      <c r="O44" s="39">
+        <v>600</v>
+      </c>
+      <c r="P44" s="39">
+        <v>176</v>
+      </c>
+      <c r="Q44" s="39">
+        <v>8</v>
+      </c>
+      <c r="R44" s="39">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="S44" s="19" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="T44" s="20"/>
       <c r="U44" s="21"/>
     </row>
-    <row r="45" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:21" x14ac:dyDescent="0.3">
       <c r="L45" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="M45" s="39">
+        <v>1640</v>
+      </c>
+      <c r="N45" s="39">
+        <v>600</v>
+      </c>
+      <c r="O45" s="39">
+        <v>600</v>
+      </c>
+      <c r="P45" s="39">
+        <v>174</v>
+      </c>
+      <c r="Q45" s="39">
+        <v>11</v>
+      </c>
+      <c r="R45" s="39">
+        <v>4.7</v>
+      </c>
       <c r="S45" s="22"/>
       <c r="T45" s="23"/>
       <c r="U45" s="24"/>
     </row>
-    <row r="46" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G46" s="3" t="s">
         <v>21</v>
       </c>
@@ -2131,78 +2538,102 @@
         <v>27</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="M46" s="39">
+        <v>1653</v>
+      </c>
+      <c r="N46" s="39">
+        <v>600</v>
+      </c>
+      <c r="O46" s="39">
+        <v>600</v>
+      </c>
+      <c r="P46" s="39">
+        <v>180</v>
+      </c>
+      <c r="Q46" s="39">
+        <v>11</v>
+      </c>
+      <c r="R46" s="39">
+        <v>4</v>
+      </c>
       <c r="S46" s="22"/>
       <c r="T46" s="23"/>
       <c r="U46" s="24"/>
     </row>
-    <row r="47" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="M47" s="39">
+        <v>1647</v>
+      </c>
+      <c r="N47" s="39">
+        <v>600</v>
+      </c>
+      <c r="O47" s="39">
+        <v>600</v>
+      </c>
+      <c r="P47" s="39">
+        <v>157</v>
+      </c>
+      <c r="Q47" s="39">
+        <v>9</v>
+      </c>
+      <c r="R47" s="39">
+        <v>4.8</v>
+      </c>
       <c r="S47" s="25"/>
       <c r="T47" s="26"/>
       <c r="U47" s="27"/>
     </row>
-    <row r="48" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G48" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="3" t="e">
+      <c r="L48" s="29"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="39">
         <f>AVERAGE(P44,P45,P46,P47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T48" s="3" t="e">
+        <v>171.75</v>
+      </c>
+      <c r="T48" s="39">
         <f>AVERAGE(Q44,Q45,Q46,Q47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U48" s="3" t="e">
+        <v>9.75</v>
+      </c>
+      <c r="U48" s="39">
         <f>AVERAGE(R44,R45,R46,R47)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G49" s="15" t="s">
+        <v>4.5250000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G49" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-    </row>
-    <row r="50" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G50" s="4">
         <v>0</v>
       </c>
@@ -2210,15 +2641,15 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G51" s="15" t="s">
+    <row r="51" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G51" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-    </row>
-    <row r="52" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+    </row>
+    <row r="52" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G52" s="4">
         <v>0.03</v>
       </c>
@@ -2233,13 +2664,13 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G53" s="15" t="s">
+    <row r="53" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G53" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="18"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="17"/>
       <c r="K53" s="7"/>
       <c r="L53" s="8"/>
       <c r="M53" s="7"/>
@@ -2248,7 +2679,7 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G54" s="4">
         <v>0.06</v>
       </c>
@@ -2263,7 +2694,7 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:17" x14ac:dyDescent="0.3">
       <c r="K55" s="7"/>
       <c r="L55" s="8"/>
       <c r="M55" s="7"/>
@@ -2272,7 +2703,7 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
     </row>
-    <row r="56" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:17" x14ac:dyDescent="0.3">
       <c r="K56" s="7"/>
       <c r="L56" s="8"/>
       <c r="M56" s="7"/>
@@ -2281,7 +2712,7 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
     </row>
-    <row r="57" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G57" s="3" t="s">
         <v>21</v>
       </c>
@@ -2289,10 +2720,10 @@
         <v>27</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="8"/>
@@ -2302,7 +2733,7 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
     </row>
-    <row r="58" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G58" s="3" t="s">
         <v>26</v>
       </c>
@@ -2317,13 +2748,13 @@
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
     </row>
-    <row r="59" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G59" s="15" t="s">
+    <row r="59" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G59" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="18"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="17"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
@@ -2332,7 +2763,7 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G60" s="4">
         <v>0</v>
       </c>
@@ -2347,15 +2778,15 @@
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G61" s="15" t="s">
+    <row r="61" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G61" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-    </row>
-    <row r="62" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+    </row>
+    <row r="62" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G62" s="4">
         <v>0.03</v>
       </c>
@@ -2363,15 +2794,15 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G63" s="15" t="s">
+    <row r="63" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G63" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-    </row>
-    <row r="64" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+    </row>
+    <row r="64" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G64" s="4">
         <v>0.06</v>
       </c>
@@ -2381,6 +2812,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L48:R48"/>
+    <mergeCell ref="S14:U17"/>
+    <mergeCell ref="S19:U22"/>
+    <mergeCell ref="S24:U27"/>
+    <mergeCell ref="S29:U32"/>
+    <mergeCell ref="S34:U37"/>
+    <mergeCell ref="S39:U42"/>
     <mergeCell ref="S44:U47"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G2:J2"/>
@@ -2396,13 +2834,6 @@
     <mergeCell ref="L33:R33"/>
     <mergeCell ref="L38:R38"/>
     <mergeCell ref="L43:R43"/>
-    <mergeCell ref="L48:R48"/>
-    <mergeCell ref="S14:U17"/>
-    <mergeCell ref="S19:U22"/>
-    <mergeCell ref="S24:U27"/>
-    <mergeCell ref="S29:U32"/>
-    <mergeCell ref="S34:U37"/>
-    <mergeCell ref="S39:U42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2413,61 +2844,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632B34C-613D-4C31-9A54-FD8E198389BA}">
   <dimension ref="C3:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="F3" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F3" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="36" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="11"/>
       <c r="F4" s="13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="3">
         <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
@@ -2477,13 +2908,13 @@
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
@@ -2493,13 +2924,13 @@
         <v>3</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
@@ -2509,13 +2940,13 @@
         <v>2</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="7"/>
@@ -2523,141 +2954,159 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="17">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="16">
         <v>0</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="17">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="16">
         <v>0.03</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="17">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="16">
         <v>0.06</v>
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="29"/>
+      <c r="D25" s="31"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="3" t="s">
+      <c r="D26" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="29"/>
+      <c r="D29" s="31"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="28"/>
-      <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="28"/>
-      <c r="D29" s="30"/>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Experiments .xlsx
+++ b/Experiments .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f88332955ad48600/Documents/GitHub/COMP3004-Video-Streaming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="13_ncr:1_{26166346-5752-44F6-B6F7-E8311E3874DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{493BD8D5-F8B8-42E5-873F-01EFA432B766}"/>
+  <xr:revisionPtr revIDLastSave="429" documentId="13_ncr:1_{26166346-5752-44F6-B6F7-E8311E3874DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1868C5E1-3F0A-4FF8-9065-370155660D77}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A0187C2B-7DBE-4E8F-8150-6C604E7E9350}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
   <si>
     <t>High Bandwidth - 5Mb</t>
   </si>
@@ -354,6 +354,15 @@
   </si>
   <si>
     <t>Average Buffer Length (s)</t>
+  </si>
+  <si>
+    <t>Tested Average Initial Delay (ms)</t>
+  </si>
+  <si>
+    <t>Subjective MOS</t>
+  </si>
+  <si>
+    <t>Experiment/Network Conditions</t>
   </si>
 </sst>
 </file>
@@ -564,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -592,6 +601,35 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -619,39 +657,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1164,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B747B0F1-CFAD-4F10-B36A-D0AE4528B4AC}">
-  <dimension ref="G2:V64"/>
+  <dimension ref="G2:AB64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+    <sheetView tabSelected="1" topLeftCell="S22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1186,37 +1197,43 @@
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="7:22" x14ac:dyDescent="0.3">
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="L2" s="32" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="L2" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
       <c r="V2" s="18"/>
     </row>
     <row r="3" spans="7:22" x14ac:dyDescent="0.3">
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
       <c r="L3" s="3" t="s">
         <v>35</v>
       </c>
@@ -1282,11 +1299,11 @@
       <c r="R4" s="2">
         <v>14.8</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="20"/>
-      <c r="U4" s="21"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="34"/>
     </row>
     <row r="5" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G5" s="3" t="s">
@@ -1316,9 +1333,9 @@
       <c r="R5" s="2">
         <v>14.9</v>
       </c>
-      <c r="S5" s="22"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="24"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="37"/>
     </row>
     <row r="6" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G6" s="3" t="s">
@@ -1348,9 +1365,9 @@
       <c r="R6" s="2">
         <v>14.6</v>
       </c>
-      <c r="S6" s="22"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="24"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="37"/>
     </row>
     <row r="7" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G7" s="3"/>
@@ -1378,22 +1395,22 @@
       <c r="R7" s="2">
         <v>14.8</v>
       </c>
-      <c r="S7" s="25"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="27"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="40"/>
     </row>
     <row r="8" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="35"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="31"/>
       <c r="S8" s="2">
         <f>AVERAGE(P4,P5,P6,P7)</f>
         <v>201.75</v>
@@ -1435,11 +1452,11 @@
       <c r="R9" s="2">
         <v>13.32</v>
       </c>
-      <c r="S9" s="19" t="s">
+      <c r="S9" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="T9" s="20"/>
-      <c r="U9" s="21"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="34"/>
     </row>
     <row r="10" spans="7:22" x14ac:dyDescent="0.3">
       <c r="L10" s="3" t="s">
@@ -1463,17 +1480,17 @@
       <c r="R10" s="2">
         <v>13.27</v>
       </c>
-      <c r="S10" s="22"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="24"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="37"/>
     </row>
     <row r="11" spans="7:22" x14ac:dyDescent="0.3">
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
       <c r="L11" s="3" t="s">
         <v>46</v>
       </c>
@@ -1495,9 +1512,9 @@
       <c r="R11" s="2">
         <v>13.2</v>
       </c>
-      <c r="S11" s="22"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="24"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="37"/>
     </row>
     <row r="12" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G12" s="10"/>
@@ -1525,22 +1542,22 @@
       <c r="R12" s="2">
         <v>13.2</v>
       </c>
-      <c r="S12" s="25"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="27"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="40"/>
     </row>
     <row r="13" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G13" s="10"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="31"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="26"/>
       <c r="S13" s="2">
         <f>AVERAGE(P9,P10,P11,P12)</f>
         <v>295.25</v>
@@ -1588,11 +1605,11 @@
       <c r="R14" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="S14" s="19" t="s">
+      <c r="S14" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="T14" s="20"/>
-      <c r="U14" s="21"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="34"/>
     </row>
     <row r="15" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G15" s="3" t="s">
@@ -1622,9 +1639,9 @@
       <c r="R15" s="2">
         <v>3.8</v>
       </c>
-      <c r="S15" s="22"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="24"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="37"/>
     </row>
     <row r="16" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G16" s="3" t="s">
@@ -1654,9 +1671,9 @@
       <c r="R16" s="2">
         <v>3.5</v>
       </c>
-      <c r="S16" s="22"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="24"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="37"/>
     </row>
     <row r="17" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G17" s="3"/>
@@ -1684,22 +1701,22 @@
       <c r="R17" s="2">
         <v>3.9</v>
       </c>
-      <c r="S17" s="25"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="27"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="40"/>
     </row>
     <row r="18" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="31"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="26"/>
       <c r="S18" s="2">
         <f>AVERAGE(P14,P15,P16,P17)</f>
         <v>4600</v>
@@ -1723,29 +1740,29 @@
       <c r="L19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M19" s="38">
+      <c r="M19" s="19">
         <v>1739</v>
       </c>
-      <c r="N19" s="38">
+      <c r="N19" s="19">
         <v>2400</v>
       </c>
-      <c r="O19" s="38">
-        <v>600</v>
-      </c>
-      <c r="P19" s="38">
+      <c r="O19" s="19">
+        <v>600</v>
+      </c>
+      <c r="P19" s="19">
         <v>375</v>
       </c>
-      <c r="Q19" s="38">
+      <c r="Q19" s="19">
         <v>0</v>
       </c>
-      <c r="R19" s="38">
+      <c r="R19" s="19">
         <v>17.399999999999999</v>
       </c>
-      <c r="S19" s="19" t="s">
+      <c r="S19" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="T19" s="20"/>
-      <c r="U19" s="21"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="34"/>
     </row>
     <row r="20" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G20" s="3"/>
@@ -1755,27 +1772,27 @@
       <c r="L20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M20" s="38">
+      <c r="M20" s="19">
         <v>1876</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20" s="19">
         <v>2400</v>
       </c>
-      <c r="O20" s="38">
+      <c r="O20" s="19">
         <v>1200</v>
       </c>
-      <c r="P20" s="38">
+      <c r="P20" s="19">
         <v>387</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="Q20" s="19">
         <v>0</v>
       </c>
-      <c r="R20" s="38">
+      <c r="R20" s="19">
         <v>17.600000000000001</v>
       </c>
-      <c r="S20" s="22"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="24"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="37"/>
     </row>
     <row r="21" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G21" s="3" t="s">
@@ -1787,27 +1804,27 @@
       <c r="L21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="M21" s="38">
+      <c r="M21" s="19">
         <v>1627</v>
       </c>
-      <c r="N21" s="38">
+      <c r="N21" s="19">
         <v>2400</v>
       </c>
-      <c r="O21" s="38">
+      <c r="O21" s="19">
         <v>1200</v>
       </c>
-      <c r="P21" s="38">
+      <c r="P21" s="19">
         <v>367</v>
       </c>
-      <c r="Q21" s="38">
+      <c r="Q21" s="19">
         <v>0</v>
       </c>
-      <c r="R21" s="38">
+      <c r="R21" s="19">
         <v>18.2</v>
       </c>
-      <c r="S21" s="22"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="24"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="37"/>
     </row>
     <row r="22" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G22" s="3"/>
@@ -1817,40 +1834,40 @@
       <c r="L22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="M22" s="38">
+      <c r="M22" s="19">
         <v>1895</v>
       </c>
-      <c r="N22" s="38">
+      <c r="N22" s="19">
         <v>2400</v>
       </c>
-      <c r="O22" s="38">
+      <c r="O22" s="19">
         <v>1200</v>
       </c>
-      <c r="P22" s="38">
+      <c r="P22" s="19">
         <v>504</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="Q22" s="19">
         <v>0</v>
       </c>
-      <c r="R22" s="38">
+      <c r="R22" s="19">
         <v>18</v>
       </c>
-      <c r="S22" s="25"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="27"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="40"/>
     </row>
     <row r="23" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="31"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="26"/>
       <c r="S23" s="14">
         <f>AVERAGE(P19,P20,P21,P22)</f>
         <v>408.25</v>
@@ -1874,29 +1891,29 @@
       <c r="L24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M24" s="38">
+      <c r="M24" s="19">
         <v>1906</v>
       </c>
-      <c r="N24" s="38">
+      <c r="N24" s="19">
         <v>2400</v>
       </c>
-      <c r="O24" s="38">
-        <v>600</v>
-      </c>
-      <c r="P24" s="38">
+      <c r="O24" s="19">
+        <v>600</v>
+      </c>
+      <c r="P24" s="19">
         <v>186</v>
       </c>
-      <c r="Q24" s="38">
+      <c r="Q24" s="19">
         <v>3</v>
       </c>
-      <c r="R24" s="38">
+      <c r="R24" s="19">
         <v>14.8</v>
       </c>
-      <c r="S24" s="19" t="s">
+      <c r="S24" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="T24" s="20"/>
-      <c r="U24" s="21"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="34"/>
     </row>
     <row r="25" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G25" s="4">
@@ -1908,27 +1925,27 @@
       <c r="L25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M25" s="38">
+      <c r="M25" s="19">
         <v>1741</v>
       </c>
-      <c r="N25" s="38">
+      <c r="N25" s="19">
         <v>2400</v>
       </c>
-      <c r="O25" s="38">
-        <v>600</v>
-      </c>
-      <c r="P25" s="38">
+      <c r="O25" s="19">
+        <v>600</v>
+      </c>
+      <c r="P25" s="19">
         <v>461</v>
       </c>
-      <c r="Q25" s="38">
+      <c r="Q25" s="19">
         <v>3</v>
       </c>
-      <c r="R25" s="38">
+      <c r="R25" s="19">
         <v>13.8</v>
       </c>
-      <c r="S25" s="22"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="24"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="37"/>
     </row>
     <row r="26" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G26" s="4">
@@ -1940,27 +1957,27 @@
       <c r="L26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M26" s="38">
+      <c r="M26" s="19">
         <v>1880</v>
       </c>
-      <c r="N26" s="38">
+      <c r="N26" s="19">
         <v>2400</v>
       </c>
-      <c r="O26" s="38">
+      <c r="O26" s="19">
         <v>1200</v>
       </c>
-      <c r="P26" s="38">
+      <c r="P26" s="19">
         <v>345</v>
       </c>
-      <c r="Q26" s="38">
+      <c r="Q26" s="19">
         <v>3</v>
       </c>
-      <c r="R26" s="38">
+      <c r="R26" s="19">
         <v>15.8</v>
       </c>
-      <c r="S26" s="22"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="24"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="37"/>
     </row>
     <row r="27" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G27" s="12"/>
@@ -1970,40 +1987,40 @@
       <c r="L27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M27" s="38">
+      <c r="M27" s="19">
         <v>1835</v>
       </c>
-      <c r="N27" s="38">
+      <c r="N27" s="19">
         <v>1200</v>
       </c>
-      <c r="O27" s="38">
-        <v>600</v>
-      </c>
-      <c r="P27" s="38">
+      <c r="O27" s="19">
+        <v>600</v>
+      </c>
+      <c r="P27" s="19">
         <v>256</v>
       </c>
-      <c r="Q27" s="38">
+      <c r="Q27" s="19">
         <v>0</v>
       </c>
-      <c r="R27" s="38">
+      <c r="R27" s="19">
         <v>17.100000000000001</v>
       </c>
-      <c r="S27" s="25"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="27"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="40"/>
     </row>
     <row r="28" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G28" s="12"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="31"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="26"/>
       <c r="S28" s="14">
         <f>AVERAGE(P24,P25,P26,P27)</f>
         <v>312</v>
@@ -2021,55 +2038,55 @@
       <c r="L29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="M29" s="38">
+      <c r="M29" s="19">
         <v>1611</v>
       </c>
-      <c r="N29" s="38">
-        <v>600</v>
-      </c>
-      <c r="O29" s="38">
-        <v>600</v>
-      </c>
-      <c r="P29" s="38">
+      <c r="N29" s="19">
+        <v>600</v>
+      </c>
+      <c r="O29" s="19">
+        <v>600</v>
+      </c>
+      <c r="P29" s="19">
         <v>242</v>
       </c>
-      <c r="Q29" s="38">
+      <c r="Q29" s="19">
         <v>10</v>
       </c>
-      <c r="R29" s="38">
+      <c r="R29" s="19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="S29" s="19" t="s">
+      <c r="S29" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="T29" s="20"/>
-      <c r="U29" s="21"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="34"/>
     </row>
     <row r="30" spans="7:21" x14ac:dyDescent="0.3">
       <c r="L30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M30" s="38">
+      <c r="M30" s="19">
         <v>1788</v>
       </c>
-      <c r="N30" s="38">
-        <v>600</v>
-      </c>
-      <c r="O30" s="38">
-        <v>600</v>
-      </c>
-      <c r="P30" s="38">
+      <c r="N30" s="19">
+        <v>600</v>
+      </c>
+      <c r="O30" s="19">
+        <v>600</v>
+      </c>
+      <c r="P30" s="19">
         <v>635</v>
       </c>
-      <c r="Q30" s="38">
+      <c r="Q30" s="19">
         <v>9</v>
       </c>
-      <c r="R30" s="38">
+      <c r="R30" s="19">
         <v>4.7</v>
       </c>
-      <c r="S30" s="22"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="24"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="37"/>
     </row>
     <row r="31" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G31" s="3" t="s">
@@ -2087,27 +2104,27 @@
       <c r="L31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M31" s="38">
+      <c r="M31" s="19">
         <v>1725</v>
       </c>
-      <c r="N31" s="38">
-        <v>600</v>
-      </c>
-      <c r="O31" s="38">
-        <v>600</v>
-      </c>
-      <c r="P31" s="38">
+      <c r="N31" s="19">
+        <v>600</v>
+      </c>
+      <c r="O31" s="19">
+        <v>600</v>
+      </c>
+      <c r="P31" s="19">
         <v>223</v>
       </c>
-      <c r="Q31" s="38">
+      <c r="Q31" s="19">
         <v>7</v>
       </c>
-      <c r="R31" s="38">
+      <c r="R31" s="19">
         <v>6.4</v>
       </c>
-      <c r="S31" s="22"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="24"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="37"/>
     </row>
     <row r="32" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G32" s="3"/>
@@ -2117,40 +2134,40 @@
       <c r="L32" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M32" s="38">
+      <c r="M32" s="19">
         <v>1413</v>
       </c>
-      <c r="N32" s="38">
-        <v>600</v>
-      </c>
-      <c r="O32" s="38">
-        <v>600</v>
-      </c>
-      <c r="P32" s="38">
+      <c r="N32" s="19">
+        <v>600</v>
+      </c>
+      <c r="O32" s="19">
+        <v>600</v>
+      </c>
+      <c r="P32" s="19">
         <v>188</v>
       </c>
-      <c r="Q32" s="38">
+      <c r="Q32" s="19">
         <v>15</v>
       </c>
-      <c r="R32" s="38">
+      <c r="R32" s="19">
         <v>4.0999999999999996</v>
       </c>
-      <c r="S32" s="25"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="27"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="40"/>
     </row>
     <row r="33" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="31"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="26"/>
       <c r="S33" s="14">
         <f>AVERAGE(P29,P30,P31,P32)</f>
         <v>322</v>
@@ -2174,29 +2191,29 @@
       <c r="L34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M34" s="39">
+      <c r="M34" s="20">
         <v>1763</v>
       </c>
-      <c r="N34" s="39">
+      <c r="N34" s="20">
         <v>2400</v>
       </c>
-      <c r="O34" s="39">
+      <c r="O34" s="20">
         <v>2400</v>
       </c>
-      <c r="P34" s="39">
+      <c r="P34" s="20">
         <v>161</v>
       </c>
-      <c r="Q34" s="39">
+      <c r="Q34" s="20">
         <v>0</v>
       </c>
-      <c r="R34" s="39">
+      <c r="R34" s="20">
         <v>25.1</v>
       </c>
-      <c r="S34" s="19" t="s">
+      <c r="S34" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="T34" s="20"/>
-      <c r="U34" s="21"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="34"/>
     </row>
     <row r="35" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G35" s="14" t="s">
@@ -2208,27 +2225,27 @@
       <c r="L35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M35" s="39">
+      <c r="M35" s="20">
         <v>1832</v>
       </c>
-      <c r="N35" s="40">
+      <c r="N35" s="21">
         <v>2400</v>
       </c>
-      <c r="O35" s="39">
+      <c r="O35" s="20">
         <v>2400</v>
       </c>
-      <c r="P35" s="39">
+      <c r="P35" s="20">
         <v>337</v>
       </c>
-      <c r="Q35" s="39">
+      <c r="Q35" s="20">
         <v>0</v>
       </c>
-      <c r="R35" s="39">
+      <c r="R35" s="20">
         <v>25</v>
       </c>
-      <c r="S35" s="22"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="24"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="37"/>
     </row>
     <row r="36" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G36" s="4">
@@ -2240,27 +2257,27 @@
       <c r="L36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M36" s="39">
+      <c r="M36" s="20">
         <v>1825</v>
       </c>
-      <c r="N36" s="39">
+      <c r="N36" s="20">
         <v>2400</v>
       </c>
-      <c r="O36" s="39">
+      <c r="O36" s="20">
         <v>2400</v>
       </c>
-      <c r="P36" s="39">
+      <c r="P36" s="20">
         <v>279</v>
       </c>
-      <c r="Q36" s="39">
+      <c r="Q36" s="20">
         <v>0</v>
       </c>
-      <c r="R36" s="39">
+      <c r="R36" s="20">
         <v>25.1</v>
       </c>
-      <c r="S36" s="22"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="24"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="37"/>
     </row>
     <row r="37" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G37" s="4"/>
@@ -2270,49 +2287,49 @@
       <c r="L37" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M37" s="39">
+      <c r="M37" s="20">
         <v>1812</v>
       </c>
-      <c r="N37" s="39">
+      <c r="N37" s="20">
         <v>2400</v>
       </c>
-      <c r="O37" s="39">
+      <c r="O37" s="20">
         <v>2400</v>
       </c>
-      <c r="P37" s="39">
+      <c r="P37" s="20">
         <v>167</v>
       </c>
-      <c r="Q37" s="39">
+      <c r="Q37" s="20">
         <v>0</v>
       </c>
-      <c r="R37" s="39">
+      <c r="R37" s="20">
         <v>25.3</v>
       </c>
-      <c r="S37" s="25"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="27"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="40"/>
     </row>
     <row r="38" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G38" s="4"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="39">
+      <c r="L38" s="24"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="20">
         <f>AVERAGE(P34,P35,P36,P37)</f>
         <v>236</v>
       </c>
-      <c r="T38" s="39">
+      <c r="T38" s="20">
         <f>AVERAGE(Q34,Q35,Q36,Q37)</f>
         <v>0</v>
       </c>
-      <c r="U38" s="39">
+      <c r="U38" s="20">
         <f>AVERAGE(R34,R35,R36,R37)</f>
         <v>25.125</v>
       </c>
@@ -2327,29 +2344,29 @@
       <c r="L39" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M39" s="39">
+      <c r="M39" s="20">
         <v>1854</v>
       </c>
-      <c r="N39" s="39">
+      <c r="N39" s="20">
         <v>2400</v>
       </c>
-      <c r="O39" s="39">
+      <c r="O39" s="20">
         <v>1200</v>
       </c>
-      <c r="P39" s="39">
+      <c r="P39" s="20">
         <v>163</v>
       </c>
-      <c r="Q39" s="39">
+      <c r="Q39" s="20">
         <v>5</v>
       </c>
-      <c r="R39" s="39">
+      <c r="R39" s="20">
         <v>13.25</v>
       </c>
-      <c r="S39" s="19" t="s">
+      <c r="S39" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="T39" s="20"/>
-      <c r="U39" s="21"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="34"/>
     </row>
     <row r="40" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G40" s="4">
@@ -2361,27 +2378,27 @@
       <c r="L40" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M40" s="39">
+      <c r="M40" s="20">
         <v>1797</v>
       </c>
-      <c r="N40" s="39">
+      <c r="N40" s="20">
         <v>1200</v>
       </c>
-      <c r="O40" s="39">
+      <c r="O40" s="20">
         <v>1200</v>
       </c>
-      <c r="P40" s="39">
+      <c r="P40" s="20">
         <v>140</v>
       </c>
-      <c r="Q40" s="39">
+      <c r="Q40" s="20">
         <v>0</v>
       </c>
-      <c r="R40" s="39">
+      <c r="R40" s="20">
         <v>17.04</v>
       </c>
-      <c r="S40" s="22"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="24"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="37"/>
     </row>
     <row r="41" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G41" s="14" t="s">
@@ -2393,27 +2410,27 @@
       <c r="L41" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M41" s="39">
+      <c r="M41" s="20">
         <v>1813</v>
       </c>
-      <c r="N41" s="39">
+      <c r="N41" s="20">
         <v>2400</v>
       </c>
-      <c r="O41" s="39">
-        <v>600</v>
-      </c>
-      <c r="P41" s="39">
+      <c r="O41" s="20">
+        <v>600</v>
+      </c>
+      <c r="P41" s="20">
         <v>461</v>
       </c>
-      <c r="Q41" s="39">
+      <c r="Q41" s="20">
         <v>3</v>
       </c>
-      <c r="R41" s="39">
+      <c r="R41" s="20">
         <v>14.52</v>
       </c>
-      <c r="S41" s="22"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="24"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="37"/>
     </row>
     <row r="42" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G42" s="14"/>
@@ -2423,49 +2440,49 @@
       <c r="L42" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M42" s="39">
+      <c r="M42" s="20">
         <v>1759</v>
       </c>
-      <c r="N42" s="39">
+      <c r="N42" s="20">
         <v>2400</v>
       </c>
-      <c r="O42" s="39">
+      <c r="O42" s="20">
         <v>1200</v>
       </c>
-      <c r="P42" s="39">
+      <c r="P42" s="20">
         <v>515</v>
       </c>
-      <c r="Q42" s="39">
+      <c r="Q42" s="20">
         <v>0</v>
       </c>
-      <c r="R42" s="39">
+      <c r="R42" s="20">
         <v>16.399999999999999</v>
       </c>
-      <c r="S42" s="25"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="27"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="40"/>
     </row>
     <row r="43" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="39">
+      <c r="L43" s="24"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="20">
         <f>AVERAGE(P39,P40,P41,P42)</f>
         <v>319.75</v>
       </c>
-      <c r="T43" s="39">
+      <c r="T43" s="20">
         <f>AVERAGE(Q39,Q40,Q41,Q42)</f>
         <v>2</v>
       </c>
-      <c r="U43" s="39">
+      <c r="U43" s="20">
         <f>AVERAGE(R39,R40,R41,R42)</f>
         <v>15.3025</v>
       </c>
@@ -2480,55 +2497,55 @@
       <c r="L44" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M44" s="39">
+      <c r="M44" s="20">
         <v>1625</v>
       </c>
-      <c r="N44" s="39">
-        <v>600</v>
-      </c>
-      <c r="O44" s="39">
-        <v>600</v>
-      </c>
-      <c r="P44" s="39">
+      <c r="N44" s="20">
+        <v>600</v>
+      </c>
+      <c r="O44" s="20">
+        <v>600</v>
+      </c>
+      <c r="P44" s="20">
         <v>176</v>
       </c>
-      <c r="Q44" s="39">
+      <c r="Q44" s="20">
         <v>8</v>
       </c>
-      <c r="R44" s="39">
+      <c r="R44" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="S44" s="19" t="s">
+      <c r="S44" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="T44" s="20"/>
-      <c r="U44" s="21"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="34"/>
     </row>
     <row r="45" spans="7:21" x14ac:dyDescent="0.3">
       <c r="L45" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="M45" s="39">
+      <c r="M45" s="20">
         <v>1640</v>
       </c>
-      <c r="N45" s="39">
-        <v>600</v>
-      </c>
-      <c r="O45" s="39">
-        <v>600</v>
-      </c>
-      <c r="P45" s="39">
+      <c r="N45" s="20">
+        <v>600</v>
+      </c>
+      <c r="O45" s="20">
+        <v>600</v>
+      </c>
+      <c r="P45" s="20">
         <v>174</v>
       </c>
-      <c r="Q45" s="39">
+      <c r="Q45" s="20">
         <v>11</v>
       </c>
-      <c r="R45" s="39">
+      <c r="R45" s="20">
         <v>4.7</v>
       </c>
-      <c r="S45" s="22"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="24"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="37"/>
     </row>
     <row r="46" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G46" s="3" t="s">
@@ -2546,27 +2563,27 @@
       <c r="L46" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M46" s="39">
+      <c r="M46" s="20">
         <v>1653</v>
       </c>
-      <c r="N46" s="39">
-        <v>600</v>
-      </c>
-      <c r="O46" s="39">
-        <v>600</v>
-      </c>
-      <c r="P46" s="39">
+      <c r="N46" s="20">
+        <v>600</v>
+      </c>
+      <c r="O46" s="20">
+        <v>600</v>
+      </c>
+      <c r="P46" s="20">
         <v>180</v>
       </c>
-      <c r="Q46" s="39">
+      <c r="Q46" s="20">
         <v>11</v>
       </c>
-      <c r="R46" s="39">
+      <c r="R46" s="20">
         <v>4</v>
       </c>
-      <c r="S46" s="22"/>
-      <c r="T46" s="23"/>
-      <c r="U46" s="24"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="37"/>
     </row>
     <row r="47" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G47" s="3"/>
@@ -2576,27 +2593,27 @@
       <c r="L47" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M47" s="39">
+      <c r="M47" s="20">
         <v>1647</v>
       </c>
-      <c r="N47" s="39">
-        <v>600</v>
-      </c>
-      <c r="O47" s="39">
-        <v>600</v>
-      </c>
-      <c r="P47" s="39">
+      <c r="N47" s="20">
+        <v>600</v>
+      </c>
+      <c r="O47" s="20">
+        <v>600</v>
+      </c>
+      <c r="P47" s="20">
         <v>157</v>
       </c>
-      <c r="Q47" s="39">
+      <c r="Q47" s="20">
         <v>9</v>
       </c>
-      <c r="R47" s="39">
+      <c r="R47" s="20">
         <v>4.8</v>
       </c>
-      <c r="S47" s="25"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="27"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="40"/>
     </row>
     <row r="48" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G48" s="3" t="s">
@@ -2605,27 +2622,27 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="39">
+      <c r="L48" s="24"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="20">
         <f>AVERAGE(P44,P45,P46,P47)</f>
         <v>171.75</v>
       </c>
-      <c r="T48" s="39">
+      <c r="T48" s="20">
         <f>AVERAGE(Q44,Q45,Q46,Q47)</f>
         <v>9.75</v>
       </c>
-      <c r="U48" s="39">
+      <c r="U48" s="20">
         <f>AVERAGE(R44,R45,R46,R47)</f>
         <v>4.5250000000000004</v>
       </c>
     </row>
-    <row r="49" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G49" s="14" t="s">
         <v>28</v>
       </c>
@@ -2633,7 +2650,7 @@
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
     </row>
-    <row r="50" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G50" s="4">
         <v>0</v>
       </c>
@@ -2641,7 +2658,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G51" s="14" t="s">
         <v>29</v>
       </c>
@@ -2649,7 +2666,7 @@
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
     </row>
-    <row r="52" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G52" s="4">
         <v>0.03</v>
       </c>
@@ -2664,7 +2681,7 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G53" s="14" t="s">
         <v>30</v>
       </c>
@@ -2678,8 +2695,29 @@
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
-    </row>
-    <row r="54" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="V53" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="W53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y53" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z53" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA53" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB53" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G54" s="4">
         <v>0.06</v>
       </c>
@@ -2693,17 +2731,59 @@
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
-    </row>
-    <row r="55" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="V54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="W54" s="3">
+        <v>600</v>
+      </c>
+      <c r="X54" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>201.75</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>14.775</v>
+      </c>
+      <c r="AB54" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="7:28" x14ac:dyDescent="0.3">
       <c r="K55" s="7"/>
       <c r="L55" s="8"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-    </row>
-    <row r="56" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="V55" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="W55" s="3">
+        <v>600</v>
+      </c>
+      <c r="X55" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y55" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Z55" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA55" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="AB55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="7:28" x14ac:dyDescent="0.3">
       <c r="K56" s="7"/>
       <c r="L56" s="8"/>
       <c r="M56" s="7"/>
@@ -2711,8 +2791,29 @@
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
-    </row>
-    <row r="57" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="V56" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="W56" s="3">
+        <v>2400</v>
+      </c>
+      <c r="X56" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>236</v>
+      </c>
+      <c r="Z56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="3">
+        <v>25.125</v>
+      </c>
+      <c r="AB56" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G57" s="3" t="s">
         <v>21</v>
       </c>
@@ -2727,13 +2828,34 @@
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="8"/>
-      <c r="M57" s="7"/>
+      <c r="M57" s="8"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
-    </row>
-    <row r="58" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="V57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="W57" s="3">
+        <v>600</v>
+      </c>
+      <c r="X57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>171.25</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>9.75</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="AB57" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G58" s="3" t="s">
         <v>26</v>
       </c>
@@ -2742,13 +2864,13 @@
       <c r="J58" s="5"/>
       <c r="K58" s="7"/>
       <c r="L58" s="8"/>
-      <c r="M58" s="7"/>
+      <c r="M58" s="8"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
     </row>
-    <row r="59" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G59" s="14" t="s">
         <v>28</v>
       </c>
@@ -2757,13 +2879,13 @@
       <c r="J59" s="17"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
+      <c r="M59" s="8"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G60" s="4">
         <v>0</v>
       </c>
@@ -2778,7 +2900,7 @@
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G61" s="14" t="s">
         <v>29</v>
       </c>
@@ -2786,7 +2908,7 @@
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
     </row>
-    <row r="62" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G62" s="4">
         <v>0.03</v>
       </c>
@@ -2794,7 +2916,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G63" s="14" t="s">
         <v>30</v>
       </c>
@@ -2802,7 +2924,7 @@
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
     </row>
-    <row r="64" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G64" s="4">
         <v>0.06</v>
       </c>
@@ -2820,6 +2942,8 @@
     <mergeCell ref="S34:U37"/>
     <mergeCell ref="S39:U42"/>
     <mergeCell ref="S44:U47"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="L43:R43"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G3:J3"/>
@@ -2832,8 +2956,6 @@
     <mergeCell ref="L23:R23"/>
     <mergeCell ref="L28:R28"/>
     <mergeCell ref="L33:R33"/>
-    <mergeCell ref="L38:R38"/>
-    <mergeCell ref="L43:R43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2845,7 +2967,7 @@
   <dimension ref="C3:H32"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2858,17 +2980,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="11"/>
       <c r="F4" s="13" t="s">
         <v>81</v>
@@ -2961,10 +3083,10 @@
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
@@ -3053,8 +3175,8 @@
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="29"/>
-      <c r="D25" s="31"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" s="3" t="s">
@@ -3081,8 +3203,8 @@
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="29"/>
-      <c r="D29" s="31"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" s="3" t="s">
@@ -3109,12 +3231,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Experiments .xlsx
+++ b/Experiments .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f88332955ad48600/Documents/GitHub/COMP3004-Video-Streaming/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrew2\Documents\GitHub\COMP3004-Video-Streaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="13_ncr:1_{26166346-5752-44F6-B6F7-E8311E3874DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1868C5E1-3F0A-4FF8-9065-370155660D77}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02296D2B-89AB-42ED-907C-544CA5A4A162}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A0187C2B-7DBE-4E8F-8150-6C604E7E9350}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A0187C2B-7DBE-4E8F-8150-6C604E7E9350}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Experiments" sheetId="1" r:id="rId1"/>
@@ -615,21 +615,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -655,6 +640,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -983,16 +983,16 @@
       <selection activeCell="B7" sqref="B7:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1003,50 +1003,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1057,57 +1057,57 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -1118,52 +1118,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1177,63 +1177,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B747B0F1-CFAD-4F10-B36A-D0AE4528B4AC}">
   <dimension ref="G2:AB64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA32" sqref="AA32"/>
+    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" customWidth="1"/>
-    <col min="16" max="16" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="31" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G2" s="24" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
       <c r="J2" s="26"/>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
       <c r="V2" s="18"/>
     </row>
-    <row r="3" spans="7:22" x14ac:dyDescent="0.3">
-      <c r="G3" s="28" t="s">
+    <row r="3" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
       <c r="L3" s="3" t="s">
         <v>35</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
@@ -1299,13 +1299,13 @@
       <c r="R4" s="2">
         <v>14.8</v>
       </c>
-      <c r="S4" s="32" t="s">
+      <c r="S4" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="33"/>
-      <c r="U4" s="34"/>
-    </row>
-    <row r="5" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="T4" s="28"/>
+      <c r="U4" s="29"/>
+    </row>
+    <row r="5" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1333,11 +1333,11 @@
       <c r="R5" s="2">
         <v>14.9</v>
       </c>
-      <c r="S5" s="35"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="37"/>
-    </row>
-    <row r="6" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S5" s="30"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="32"/>
+    </row>
+    <row r="6" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G6" s="3" t="s">
         <v>24</v>
       </c>
@@ -1365,11 +1365,11 @@
       <c r="R6" s="2">
         <v>14.6</v>
       </c>
-      <c r="S6" s="35"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="37"/>
-    </row>
-    <row r="7" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S6" s="30"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="32"/>
+    </row>
+    <row r="7" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1395,22 +1395,22 @@
       <c r="R7" s="2">
         <v>14.8</v>
       </c>
-      <c r="S7" s="38"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="40"/>
-    </row>
-    <row r="8" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S7" s="33"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="35"/>
+    </row>
+    <row r="8" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="31"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="40"/>
       <c r="S8" s="2">
         <f>AVERAGE(P4,P5,P6,P7)</f>
         <v>201.75</v>
@@ -1424,7 +1424,7 @@
         <v>14.775000000000002</v>
       </c>
     </row>
-    <row r="9" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1452,13 +1452,13 @@
       <c r="R9" s="2">
         <v>13.32</v>
       </c>
-      <c r="S9" s="32" t="s">
+      <c r="S9" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="T9" s="33"/>
-      <c r="U9" s="34"/>
-    </row>
-    <row r="10" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="T9" s="28"/>
+      <c r="U9" s="29"/>
+    </row>
+    <row r="10" spans="7:22" x14ac:dyDescent="0.25">
       <c r="L10" s="3" t="s">
         <v>45</v>
       </c>
@@ -1480,17 +1480,17 @@
       <c r="R10" s="2">
         <v>13.27</v>
       </c>
-      <c r="S10" s="35"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="37"/>
-    </row>
-    <row r="11" spans="7:22" x14ac:dyDescent="0.3">
-      <c r="G11" s="27" t="s">
+      <c r="S10" s="30"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="32"/>
+    </row>
+    <row r="11" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G11" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
       <c r="L11" s="3" t="s">
         <v>46</v>
       </c>
@@ -1512,11 +1512,11 @@
       <c r="R11" s="2">
         <v>13.2</v>
       </c>
-      <c r="S11" s="35"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="37"/>
-    </row>
-    <row r="12" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S11" s="30"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="32"/>
+    </row>
+    <row r="12" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G12" s="10"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -1542,11 +1542,11 @@
       <c r="R12" s="2">
         <v>13.2</v>
       </c>
-      <c r="S12" s="38"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="40"/>
-    </row>
-    <row r="13" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S12" s="33"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="35"/>
+    </row>
+    <row r="13" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G13" s="10"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
@@ -1571,7 +1571,7 @@
         <v>13.247499999999999</v>
       </c>
     </row>
-    <row r="14" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1605,13 +1605,13 @@
       <c r="R14" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="S14" s="32" t="s">
+      <c r="S14" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="T14" s="33"/>
-      <c r="U14" s="34"/>
-    </row>
-    <row r="15" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="T14" s="28"/>
+      <c r="U14" s="29"/>
+    </row>
+    <row r="15" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1639,11 +1639,11 @@
       <c r="R15" s="2">
         <v>3.8</v>
       </c>
-      <c r="S15" s="35"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="37"/>
-    </row>
-    <row r="16" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="S15" s="30"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="32"/>
+    </row>
+    <row r="16" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G16" s="3" t="s">
         <v>29</v>
       </c>
@@ -1671,11 +1671,11 @@
       <c r="R16" s="2">
         <v>3.5</v>
       </c>
-      <c r="S16" s="35"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="37"/>
-    </row>
-    <row r="17" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="S16" s="30"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="32"/>
+    </row>
+    <row r="17" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1701,11 +1701,11 @@
       <c r="R17" s="2">
         <v>3.9</v>
       </c>
-      <c r="S17" s="38"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="40"/>
-    </row>
-    <row r="18" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="S17" s="33"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="35"/>
+    </row>
+    <row r="18" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1730,7 +1730,7 @@
         <v>3.9499999999999997</v>
       </c>
     </row>
-    <row r="19" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
@@ -1758,13 +1758,13 @@
       <c r="R19" s="19">
         <v>17.399999999999999</v>
       </c>
-      <c r="S19" s="32" t="s">
+      <c r="S19" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="T19" s="33"/>
-      <c r="U19" s="34"/>
-    </row>
-    <row r="20" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="T19" s="28"/>
+      <c r="U19" s="29"/>
+    </row>
+    <row r="20" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1790,11 +1790,11 @@
       <c r="R20" s="19">
         <v>17.600000000000001</v>
       </c>
-      <c r="S20" s="35"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="37"/>
-    </row>
-    <row r="21" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="S20" s="30"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="32"/>
+    </row>
+    <row r="21" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1822,11 +1822,11 @@
       <c r="R21" s="19">
         <v>18.2</v>
       </c>
-      <c r="S21" s="35"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="37"/>
-    </row>
-    <row r="22" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="S21" s="30"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="32"/>
+    </row>
+    <row r="22" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1852,11 +1852,11 @@
       <c r="R22" s="19">
         <v>18</v>
       </c>
-      <c r="S22" s="38"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="40"/>
-    </row>
-    <row r="23" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="S22" s="33"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="35"/>
+    </row>
+    <row r="23" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1881,7 +1881,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="24" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G24" s="4">
         <v>0</v>
       </c>
@@ -1909,13 +1909,13 @@
       <c r="R24" s="19">
         <v>14.8</v>
       </c>
-      <c r="S24" s="32" t="s">
+      <c r="S24" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="T24" s="33"/>
-      <c r="U24" s="34"/>
-    </row>
-    <row r="25" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="T24" s="28"/>
+      <c r="U24" s="29"/>
+    </row>
+    <row r="25" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G25" s="4">
         <v>0.03</v>
       </c>
@@ -1943,11 +1943,11 @@
       <c r="R25" s="19">
         <v>13.8</v>
       </c>
-      <c r="S25" s="35"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="37"/>
-    </row>
-    <row r="26" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="S25" s="30"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="32"/>
+    </row>
+    <row r="26" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G26" s="4">
         <v>0.06</v>
       </c>
@@ -1975,11 +1975,11 @@
       <c r="R26" s="19">
         <v>15.8</v>
       </c>
-      <c r="S26" s="35"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="37"/>
-    </row>
-    <row r="27" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="S26" s="30"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="32"/>
+    </row>
+    <row r="27" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G27" s="12"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -2005,11 +2005,11 @@
       <c r="R27" s="19">
         <v>17.100000000000001</v>
       </c>
-      <c r="S27" s="38"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="40"/>
-    </row>
-    <row r="28" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="S27" s="33"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="35"/>
+    </row>
+    <row r="28" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G28" s="12"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -2034,7 +2034,7 @@
         <v>15.375000000000002</v>
       </c>
     </row>
-    <row r="29" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:21" x14ac:dyDescent="0.25">
       <c r="L29" s="3" t="s">
         <v>56</v>
       </c>
@@ -2056,13 +2056,13 @@
       <c r="R29" s="19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="S29" s="32" t="s">
+      <c r="S29" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="T29" s="33"/>
-      <c r="U29" s="34"/>
-    </row>
-    <row r="30" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="T29" s="28"/>
+      <c r="U29" s="29"/>
+    </row>
+    <row r="30" spans="7:21" x14ac:dyDescent="0.25">
       <c r="L30" s="3" t="s">
         <v>57</v>
       </c>
@@ -2084,11 +2084,11 @@
       <c r="R30" s="19">
         <v>4.7</v>
       </c>
-      <c r="S30" s="35"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="37"/>
-    </row>
-    <row r="31" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="S30" s="30"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="32"/>
+    </row>
+    <row r="31" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G31" s="3" t="s">
         <v>21</v>
       </c>
@@ -2122,11 +2122,11 @@
       <c r="R31" s="19">
         <v>6.4</v>
       </c>
-      <c r="S31" s="35"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="37"/>
-    </row>
-    <row r="32" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="S31" s="30"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="32"/>
+    </row>
+    <row r="32" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -2152,11 +2152,11 @@
       <c r="R32" s="19">
         <v>4.0999999999999996</v>
       </c>
-      <c r="S32" s="38"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="40"/>
-    </row>
-    <row r="33" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="S32" s="33"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="35"/>
+    </row>
+    <row r="33" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -2181,7 +2181,7 @@
         <v>5.0750000000000011</v>
       </c>
     </row>
-    <row r="34" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G34" s="3" t="s">
         <v>39</v>
       </c>
@@ -2209,13 +2209,13 @@
       <c r="R34" s="20">
         <v>25.1</v>
       </c>
-      <c r="S34" s="32" t="s">
+      <c r="S34" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="T34" s="33"/>
-      <c r="U34" s="34"/>
-    </row>
-    <row r="35" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="T34" s="28"/>
+      <c r="U34" s="29"/>
+    </row>
+    <row r="35" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G35" s="14" t="s">
         <v>28</v>
       </c>
@@ -2243,11 +2243,11 @@
       <c r="R35" s="20">
         <v>25</v>
       </c>
-      <c r="S35" s="35"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="37"/>
-    </row>
-    <row r="36" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="S35" s="30"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="32"/>
+    </row>
+    <row r="36" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G36" s="4">
         <v>0</v>
       </c>
@@ -2275,11 +2275,11 @@
       <c r="R36" s="20">
         <v>25.1</v>
       </c>
-      <c r="S36" s="35"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="37"/>
-    </row>
-    <row r="37" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="S36" s="30"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="32"/>
+    </row>
+    <row r="37" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G37" s="4"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -2305,11 +2305,11 @@
       <c r="R37" s="20">
         <v>25.3</v>
       </c>
-      <c r="S37" s="38"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="40"/>
-    </row>
-    <row r="38" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="S37" s="33"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="35"/>
+    </row>
+    <row r="38" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G38" s="4"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -2334,7 +2334,7 @@
         <v>25.125</v>
       </c>
     </row>
-    <row r="39" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G39" s="14" t="s">
         <v>29</v>
       </c>
@@ -2362,13 +2362,13 @@
       <c r="R39" s="20">
         <v>13.25</v>
       </c>
-      <c r="S39" s="32" t="s">
+      <c r="S39" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="T39" s="33"/>
-      <c r="U39" s="34"/>
-    </row>
-    <row r="40" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="T39" s="28"/>
+      <c r="U39" s="29"/>
+    </row>
+    <row r="40" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G40" s="4">
         <v>0.03</v>
       </c>
@@ -2396,11 +2396,11 @@
       <c r="R40" s="20">
         <v>17.04</v>
       </c>
-      <c r="S40" s="35"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="37"/>
-    </row>
-    <row r="41" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="S40" s="30"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="32"/>
+    </row>
+    <row r="41" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G41" s="14" t="s">
         <v>30</v>
       </c>
@@ -2428,11 +2428,11 @@
       <c r="R41" s="20">
         <v>14.52</v>
       </c>
-      <c r="S41" s="35"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="37"/>
-    </row>
-    <row r="42" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="S41" s="30"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="32"/>
+    </row>
+    <row r="42" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2458,11 +2458,11 @@
       <c r="R42" s="20">
         <v>16.399999999999999</v>
       </c>
-      <c r="S42" s="38"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="40"/>
-    </row>
-    <row r="43" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="S42" s="33"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="35"/>
+    </row>
+    <row r="43" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -2487,7 +2487,7 @@
         <v>15.3025</v>
       </c>
     </row>
-    <row r="44" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G44" s="4">
         <v>0.06</v>
       </c>
@@ -2515,13 +2515,13 @@
       <c r="R44" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="S44" s="32" t="s">
+      <c r="S44" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="T44" s="33"/>
-      <c r="U44" s="34"/>
-    </row>
-    <row r="45" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="T44" s="28"/>
+      <c r="U44" s="29"/>
+    </row>
+    <row r="45" spans="7:21" x14ac:dyDescent="0.25">
       <c r="L45" s="3" t="s">
         <v>66</v>
       </c>
@@ -2543,11 +2543,11 @@
       <c r="R45" s="20">
         <v>4.7</v>
       </c>
-      <c r="S45" s="35"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="37"/>
-    </row>
-    <row r="46" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="S45" s="30"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="32"/>
+    </row>
+    <row r="46" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G46" s="3" t="s">
         <v>21</v>
       </c>
@@ -2581,11 +2581,11 @@
       <c r="R46" s="20">
         <v>4</v>
       </c>
-      <c r="S46" s="35"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="37"/>
-    </row>
-    <row r="47" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="S46" s="30"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="32"/>
+    </row>
+    <row r="47" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -2611,11 +2611,11 @@
       <c r="R47" s="20">
         <v>4.8</v>
       </c>
-      <c r="S47" s="38"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="40"/>
-    </row>
-    <row r="48" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="S47" s="33"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="35"/>
+    </row>
+    <row r="48" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G48" s="3" t="s">
         <v>24</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>4.5250000000000004</v>
       </c>
     </row>
-    <row r="49" spans="7:28" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G49" s="14" t="s">
         <v>28</v>
       </c>
@@ -2650,7 +2650,7 @@
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
     </row>
-    <row r="50" spans="7:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G50" s="4">
         <v>0</v>
       </c>
@@ -2658,7 +2658,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="7:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G51" s="14" t="s">
         <v>29</v>
       </c>
@@ -2666,7 +2666,7 @@
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
     </row>
-    <row r="52" spans="7:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G52" s="4">
         <v>0.03</v>
       </c>
@@ -2681,7 +2681,7 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="7:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G53" s="14" t="s">
         <v>30</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="7:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G54" s="4">
         <v>0.06</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="7:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:28" x14ac:dyDescent="0.25">
       <c r="K55" s="7"/>
       <c r="L55" s="8"/>
       <c r="M55" s="7"/>
@@ -2783,7 +2783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="7:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:28" x14ac:dyDescent="0.25">
       <c r="K56" s="7"/>
       <c r="L56" s="8"/>
       <c r="M56" s="7"/>
@@ -2813,7 +2813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="7:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G57" s="3" t="s">
         <v>21</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="7:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G58" s="3" t="s">
         <v>26</v>
       </c>
@@ -2870,7 +2870,7 @@
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
     </row>
-    <row r="59" spans="7:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G59" s="14" t="s">
         <v>28</v>
       </c>
@@ -2885,7 +2885,7 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" spans="7:28" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G60" s="4">
         <v>0</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="7:28" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G61" s="14" t="s">
         <v>29</v>
       </c>
@@ -2908,7 +2908,7 @@
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
     </row>
-    <row r="62" spans="7:28" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G62" s="4">
         <v>0.03</v>
       </c>
@@ -2916,7 +2916,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="7:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G63" s="14" t="s">
         <v>30</v>
       </c>
@@ -2924,7 +2924,7 @@
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
     </row>
-    <row r="64" spans="7:28" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G64" s="4">
         <v>0.06</v>
       </c>
@@ -2934,6 +2934,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="L23:R23"/>
+    <mergeCell ref="L28:R28"/>
+    <mergeCell ref="L33:R33"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="L2:U2"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="S4:U7"/>
+    <mergeCell ref="S9:U12"/>
     <mergeCell ref="L48:R48"/>
     <mergeCell ref="S14:U17"/>
     <mergeCell ref="S19:U22"/>
@@ -2944,18 +2956,6 @@
     <mergeCell ref="S44:U47"/>
     <mergeCell ref="L38:R38"/>
     <mergeCell ref="L43:R43"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="L2:U2"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="S4:U7"/>
-    <mergeCell ref="S9:U12"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="L18:R18"/>
-    <mergeCell ref="L23:R23"/>
-    <mergeCell ref="L28:R28"/>
-    <mergeCell ref="L33:R33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2966,27 +2966,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632B34C-613D-4C31-9A54-FD8E198389BA}">
   <dimension ref="C3:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F3" s="24" t="s">
         <v>94</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" s="41" t="s">
         <v>20</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="7"/>
@@ -3082,7 +3082,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="41" t="s">
         <v>34</v>
       </c>
@@ -3090,7 +3090,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3098,59 +3098,59 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="16">
         <v>0</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="16">
         <v>0.03</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="16">
         <v>0.06</v>
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>68</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>98</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
         <v>97</v>
       </c>
@@ -3174,11 +3174,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="22"/>
       <c r="D25" s="23"/>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
         <v>69</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>99</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
         <v>100</v>
       </c>
@@ -3202,11 +3202,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
         <v>70</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
         <v>101</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
         <v>102</v>
       </c>

--- a/Experiments .xlsx
+++ b/Experiments .xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrew2\Documents\GitHub\COMP3004-Video-Streaming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f88332955ad48600/Documents/GitHub/COMP3004-Video-Streaming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02296D2B-89AB-42ED-907C-544CA5A4A162}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{02296D2B-89AB-42ED-907C-544CA5A4A162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF59F4EA-E834-41A1-A853-4707390B2735}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A0187C2B-7DBE-4E8F-8150-6C604E7E9350}"/>
+    <workbookView minimized="1" xWindow="-24135" yWindow="495" windowWidth="13830" windowHeight="7170" activeTab="1" xr2:uid="{A0187C2B-7DBE-4E8F-8150-6C604E7E9350}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Experiments" sheetId="1" r:id="rId1"/>
     <sheet name="Objective tests" sheetId="3" r:id="rId2"/>
     <sheet name="Subjective Tests" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -615,6 +615,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -642,21 +657,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -678,6 +678,1089 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Relationship between BW and</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Packet Loss to </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Bitrate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> and Initial Delay</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Objective tests'!$W$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Starting Bitrate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Objective tests'!$V$54,'Objective tests'!$V$55,'Objective tests'!$V$56,'Objective tests'!$V$57)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Experiment 1.1 --&gt; 1Mbps - 0ms - 0%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Experiment 1.3 --&gt; 1Mbps - 0ms - 8%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Experiment 3.1 --&gt; 10Mbps - 0ms - 0%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Experiment 3.3 --&gt; 10Mbps - 0ms - 8%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Objective tests'!$W$54:$W$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1EF-443D-993E-C05FC6179823}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Objective tests'!$X$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ending Bitrate </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Objective tests'!$V$54,'Objective tests'!$V$55,'Objective tests'!$V$56,'Objective tests'!$V$57)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Experiment 1.1 --&gt; 1Mbps - 0ms - 0%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Experiment 1.3 --&gt; 1Mbps - 0ms - 8%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Experiment 3.1 --&gt; 10Mbps - 0ms - 0%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Experiment 3.3 --&gt; 10Mbps - 0ms - 8%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Objective tests'!$X$54:$X$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F1EF-443D-993E-C05FC6179823}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Objective tests'!$Y$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tested Average Initial Delay (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Objective tests'!$V$54,'Objective tests'!$V$55,'Objective tests'!$V$56,'Objective tests'!$V$57)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Experiment 1.1 --&gt; 1Mbps - 0ms - 0%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Experiment 1.3 --&gt; 1Mbps - 0ms - 8%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Experiment 3.1 --&gt; 10Mbps - 0ms - 0%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Experiment 3.3 --&gt; 10Mbps - 0ms - 8%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Objective tests'!$Y$54:$Y$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>201.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>171.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F1EF-443D-993E-C05FC6179823}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="916429112"/>
+        <c:axId val="916428128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="916429112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="916428128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="916428128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="916429112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>765064</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1196270</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>174930</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3934FA93-DE8A-4BCB-A982-E8747CD8DCC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -983,16 +2066,16 @@
       <selection activeCell="B7" sqref="B7:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1003,50 +2086,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1057,57 +2140,57 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -1118,52 +2201,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1177,63 +2260,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B747B0F1-CFAD-4F10-B36A-D0AE4528B4AC}">
   <dimension ref="G2:AB64"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" topLeftCell="W30" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="16" max="16" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="31" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G2" s="24" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
       <c r="J2" s="26"/>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
       <c r="V2" s="18"/>
     </row>
-    <row r="3" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="G3" s="37" t="s">
+    <row r="3" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
       <c r="L3" s="3" t="s">
         <v>35</v>
       </c>
@@ -1265,7 +2348,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
@@ -1299,13 +2382,13 @@
       <c r="R4" s="2">
         <v>14.8</v>
       </c>
-      <c r="S4" s="27" t="s">
+      <c r="S4" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="28"/>
-      <c r="U4" s="29"/>
-    </row>
-    <row r="5" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="T4" s="33"/>
+      <c r="U4" s="34"/>
+    </row>
+    <row r="5" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1333,11 +2416,11 @@
       <c r="R5" s="2">
         <v>14.9</v>
       </c>
-      <c r="S5" s="30"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="32"/>
-    </row>
-    <row r="6" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="S5" s="35"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="37"/>
+    </row>
+    <row r="6" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G6" s="3" t="s">
         <v>24</v>
       </c>
@@ -1365,11 +2448,11 @@
       <c r="R6" s="2">
         <v>14.6</v>
       </c>
-      <c r="S6" s="30"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="32"/>
-    </row>
-    <row r="7" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="S6" s="35"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="37"/>
+    </row>
+    <row r="7" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1395,22 +2478,22 @@
       <c r="R7" s="2">
         <v>14.8</v>
       </c>
-      <c r="S7" s="33"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="35"/>
-    </row>
-    <row r="8" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="S7" s="38"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="40"/>
+    </row>
+    <row r="8" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="31"/>
       <c r="S8" s="2">
         <f>AVERAGE(P4,P5,P6,P7)</f>
         <v>201.75</v>
@@ -1424,7 +2507,7 @@
         <v>14.775000000000002</v>
       </c>
     </row>
-    <row r="9" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1452,13 +2535,13 @@
       <c r="R9" s="2">
         <v>13.32</v>
       </c>
-      <c r="S9" s="27" t="s">
+      <c r="S9" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="T9" s="28"/>
-      <c r="U9" s="29"/>
-    </row>
-    <row r="10" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="T9" s="33"/>
+      <c r="U9" s="34"/>
+    </row>
+    <row r="10" spans="7:22" x14ac:dyDescent="0.3">
       <c r="L10" s="3" t="s">
         <v>45</v>
       </c>
@@ -1480,17 +2563,17 @@
       <c r="R10" s="2">
         <v>13.27</v>
       </c>
-      <c r="S10" s="30"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="32"/>
-    </row>
-    <row r="11" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="G11" s="36" t="s">
+      <c r="S10" s="35"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="37"/>
+    </row>
+    <row r="11" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
       <c r="L11" s="3" t="s">
         <v>46</v>
       </c>
@@ -1512,11 +2595,11 @@
       <c r="R11" s="2">
         <v>13.2</v>
       </c>
-      <c r="S11" s="30"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="32"/>
-    </row>
-    <row r="12" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="S11" s="35"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="37"/>
+    </row>
+    <row r="12" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G12" s="10"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -1542,11 +2625,11 @@
       <c r="R12" s="2">
         <v>13.2</v>
       </c>
-      <c r="S12" s="33"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="35"/>
-    </row>
-    <row r="13" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="S12" s="38"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="40"/>
+    </row>
+    <row r="13" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G13" s="10"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
@@ -1571,7 +2654,7 @@
         <v>13.247499999999999</v>
       </c>
     </row>
-    <row r="14" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1605,13 +2688,13 @@
       <c r="R14" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="S14" s="27" t="s">
+      <c r="S14" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="T14" s="28"/>
-      <c r="U14" s="29"/>
-    </row>
-    <row r="15" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="T14" s="33"/>
+      <c r="U14" s="34"/>
+    </row>
+    <row r="15" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1639,11 +2722,11 @@
       <c r="R15" s="2">
         <v>3.8</v>
       </c>
-      <c r="S15" s="30"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="32"/>
-    </row>
-    <row r="16" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="S15" s="35"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="37"/>
+    </row>
+    <row r="16" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G16" s="3" t="s">
         <v>29</v>
       </c>
@@ -1671,11 +2754,11 @@
       <c r="R16" s="2">
         <v>3.5</v>
       </c>
-      <c r="S16" s="30"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="32"/>
-    </row>
-    <row r="17" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="S16" s="35"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="37"/>
+    </row>
+    <row r="17" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1701,11 +2784,11 @@
       <c r="R17" s="2">
         <v>3.9</v>
       </c>
-      <c r="S17" s="33"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="35"/>
-    </row>
-    <row r="18" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="S17" s="38"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="40"/>
+    </row>
+    <row r="18" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1730,7 +2813,7 @@
         <v>3.9499999999999997</v>
       </c>
     </row>
-    <row r="19" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
@@ -1758,13 +2841,13 @@
       <c r="R19" s="19">
         <v>17.399999999999999</v>
       </c>
-      <c r="S19" s="27" t="s">
+      <c r="S19" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="T19" s="28"/>
-      <c r="U19" s="29"/>
-    </row>
-    <row r="20" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="T19" s="33"/>
+      <c r="U19" s="34"/>
+    </row>
+    <row r="20" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1790,11 +2873,11 @@
       <c r="R20" s="19">
         <v>17.600000000000001</v>
       </c>
-      <c r="S20" s="30"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="32"/>
-    </row>
-    <row r="21" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="S20" s="35"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="37"/>
+    </row>
+    <row r="21" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1822,11 +2905,11 @@
       <c r="R21" s="19">
         <v>18.2</v>
       </c>
-      <c r="S21" s="30"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="32"/>
-    </row>
-    <row r="22" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="S21" s="35"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="37"/>
+    </row>
+    <row r="22" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1852,11 +2935,11 @@
       <c r="R22" s="19">
         <v>18</v>
       </c>
-      <c r="S22" s="33"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="35"/>
-    </row>
-    <row r="23" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="S22" s="38"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="40"/>
+    </row>
+    <row r="23" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1881,7 +2964,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="24" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G24" s="4">
         <v>0</v>
       </c>
@@ -1909,13 +2992,13 @@
       <c r="R24" s="19">
         <v>14.8</v>
       </c>
-      <c r="S24" s="27" t="s">
+      <c r="S24" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="T24" s="28"/>
-      <c r="U24" s="29"/>
-    </row>
-    <row r="25" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="T24" s="33"/>
+      <c r="U24" s="34"/>
+    </row>
+    <row r="25" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G25" s="4">
         <v>0.03</v>
       </c>
@@ -1943,11 +3026,11 @@
       <c r="R25" s="19">
         <v>13.8</v>
       </c>
-      <c r="S25" s="30"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="32"/>
-    </row>
-    <row r="26" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="S25" s="35"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="37"/>
+    </row>
+    <row r="26" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G26" s="4">
         <v>0.06</v>
       </c>
@@ -1975,11 +3058,11 @@
       <c r="R26" s="19">
         <v>15.8</v>
       </c>
-      <c r="S26" s="30"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="32"/>
-    </row>
-    <row r="27" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="S26" s="35"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="37"/>
+    </row>
+    <row r="27" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G27" s="12"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -2005,11 +3088,11 @@
       <c r="R27" s="19">
         <v>17.100000000000001</v>
       </c>
-      <c r="S27" s="33"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="35"/>
-    </row>
-    <row r="28" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="S27" s="38"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="40"/>
+    </row>
+    <row r="28" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G28" s="12"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -2034,7 +3117,7 @@
         <v>15.375000000000002</v>
       </c>
     </row>
-    <row r="29" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:21" x14ac:dyDescent="0.3">
       <c r="L29" s="3" t="s">
         <v>56</v>
       </c>
@@ -2056,13 +3139,13 @@
       <c r="R29" s="19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="S29" s="27" t="s">
+      <c r="S29" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="T29" s="28"/>
-      <c r="U29" s="29"/>
-    </row>
-    <row r="30" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="T29" s="33"/>
+      <c r="U29" s="34"/>
+    </row>
+    <row r="30" spans="7:21" x14ac:dyDescent="0.3">
       <c r="L30" s="3" t="s">
         <v>57</v>
       </c>
@@ -2084,11 +3167,11 @@
       <c r="R30" s="19">
         <v>4.7</v>
       </c>
-      <c r="S30" s="30"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="32"/>
-    </row>
-    <row r="31" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="S30" s="35"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="37"/>
+    </row>
+    <row r="31" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G31" s="3" t="s">
         <v>21</v>
       </c>
@@ -2122,11 +3205,11 @@
       <c r="R31" s="19">
         <v>6.4</v>
       </c>
-      <c r="S31" s="30"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="32"/>
-    </row>
-    <row r="32" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="S31" s="35"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="37"/>
+    </row>
+    <row r="32" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -2152,11 +3235,11 @@
       <c r="R32" s="19">
         <v>4.0999999999999996</v>
       </c>
-      <c r="S32" s="33"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="35"/>
-    </row>
-    <row r="33" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="S32" s="38"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="40"/>
+    </row>
+    <row r="33" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -2181,7 +3264,7 @@
         <v>5.0750000000000011</v>
       </c>
     </row>
-    <row r="34" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G34" s="3" t="s">
         <v>39</v>
       </c>
@@ -2209,13 +3292,13 @@
       <c r="R34" s="20">
         <v>25.1</v>
       </c>
-      <c r="S34" s="27" t="s">
+      <c r="S34" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="T34" s="28"/>
-      <c r="U34" s="29"/>
-    </row>
-    <row r="35" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="T34" s="33"/>
+      <c r="U34" s="34"/>
+    </row>
+    <row r="35" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G35" s="14" t="s">
         <v>28</v>
       </c>
@@ -2243,11 +3326,11 @@
       <c r="R35" s="20">
         <v>25</v>
       </c>
-      <c r="S35" s="30"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="32"/>
-    </row>
-    <row r="36" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="S35" s="35"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="37"/>
+    </row>
+    <row r="36" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G36" s="4">
         <v>0</v>
       </c>
@@ -2275,11 +3358,11 @@
       <c r="R36" s="20">
         <v>25.1</v>
       </c>
-      <c r="S36" s="30"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="32"/>
-    </row>
-    <row r="37" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="S36" s="35"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="37"/>
+    </row>
+    <row r="37" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G37" s="4"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -2305,11 +3388,11 @@
       <c r="R37" s="20">
         <v>25.3</v>
       </c>
-      <c r="S37" s="33"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="35"/>
-    </row>
-    <row r="38" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="S37" s="38"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="40"/>
+    </row>
+    <row r="38" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G38" s="4"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -2334,7 +3417,7 @@
         <v>25.125</v>
       </c>
     </row>
-    <row r="39" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G39" s="14" t="s">
         <v>29</v>
       </c>
@@ -2362,13 +3445,13 @@
       <c r="R39" s="20">
         <v>13.25</v>
       </c>
-      <c r="S39" s="27" t="s">
+      <c r="S39" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="T39" s="28"/>
-      <c r="U39" s="29"/>
-    </row>
-    <row r="40" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="T39" s="33"/>
+      <c r="U39" s="34"/>
+    </row>
+    <row r="40" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G40" s="4">
         <v>0.03</v>
       </c>
@@ -2396,11 +3479,11 @@
       <c r="R40" s="20">
         <v>17.04</v>
       </c>
-      <c r="S40" s="30"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="32"/>
-    </row>
-    <row r="41" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="S40" s="35"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="37"/>
+    </row>
+    <row r="41" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G41" s="14" t="s">
         <v>30</v>
       </c>
@@ -2428,11 +3511,11 @@
       <c r="R41" s="20">
         <v>14.52</v>
       </c>
-      <c r="S41" s="30"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="32"/>
-    </row>
-    <row r="42" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="S41" s="35"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="37"/>
+    </row>
+    <row r="42" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2458,11 +3541,11 @@
       <c r="R42" s="20">
         <v>16.399999999999999</v>
       </c>
-      <c r="S42" s="33"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="35"/>
-    </row>
-    <row r="43" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="S42" s="38"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="40"/>
+    </row>
+    <row r="43" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -2487,7 +3570,7 @@
         <v>15.3025</v>
       </c>
     </row>
-    <row r="44" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G44" s="4">
         <v>0.06</v>
       </c>
@@ -2515,13 +3598,13 @@
       <c r="R44" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="S44" s="27" t="s">
+      <c r="S44" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="T44" s="28"/>
-      <c r="U44" s="29"/>
-    </row>
-    <row r="45" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="T44" s="33"/>
+      <c r="U44" s="34"/>
+    </row>
+    <row r="45" spans="7:21" x14ac:dyDescent="0.3">
       <c r="L45" s="3" t="s">
         <v>66</v>
       </c>
@@ -2543,11 +3626,11 @@
       <c r="R45" s="20">
         <v>4.7</v>
       </c>
-      <c r="S45" s="30"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="32"/>
-    </row>
-    <row r="46" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="S45" s="35"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="37"/>
+    </row>
+    <row r="46" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G46" s="3" t="s">
         <v>21</v>
       </c>
@@ -2581,11 +3664,11 @@
       <c r="R46" s="20">
         <v>4</v>
       </c>
-      <c r="S46" s="30"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="32"/>
-    </row>
-    <row r="47" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="S46" s="35"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="37"/>
+    </row>
+    <row r="47" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -2611,11 +3694,11 @@
       <c r="R47" s="20">
         <v>4.8</v>
       </c>
-      <c r="S47" s="33"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="35"/>
-    </row>
-    <row r="48" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="S47" s="38"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="40"/>
+    </row>
+    <row r="48" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G48" s="3" t="s">
         <v>24</v>
       </c>
@@ -2642,7 +3725,7 @@
         <v>4.5250000000000004</v>
       </c>
     </row>
-    <row r="49" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G49" s="14" t="s">
         <v>28</v>
       </c>
@@ -2650,7 +3733,7 @@
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
     </row>
-    <row r="50" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G50" s="4">
         <v>0</v>
       </c>
@@ -2658,7 +3741,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G51" s="14" t="s">
         <v>29</v>
       </c>
@@ -2666,7 +3749,7 @@
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
     </row>
-    <row r="52" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G52" s="4">
         <v>0.03</v>
       </c>
@@ -2681,7 +3764,7 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G53" s="14" t="s">
         <v>30</v>
       </c>
@@ -2717,7 +3800,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G54" s="4">
         <v>0.06</v>
       </c>
@@ -2753,7 +3836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:28" x14ac:dyDescent="0.3">
       <c r="K55" s="7"/>
       <c r="L55" s="8"/>
       <c r="M55" s="7"/>
@@ -2783,7 +3866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:28" x14ac:dyDescent="0.3">
       <c r="K56" s="7"/>
       <c r="L56" s="8"/>
       <c r="M56" s="7"/>
@@ -2813,7 +3896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G57" s="3" t="s">
         <v>21</v>
       </c>
@@ -2855,7 +3938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G58" s="3" t="s">
         <v>26</v>
       </c>
@@ -2870,7 +3953,7 @@
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
     </row>
-    <row r="59" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G59" s="14" t="s">
         <v>28</v>
       </c>
@@ -2885,7 +3968,7 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G60" s="4">
         <v>0</v>
       </c>
@@ -2900,7 +3983,7 @@
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G61" s="14" t="s">
         <v>29</v>
       </c>
@@ -2908,7 +3991,7 @@
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
     </row>
-    <row r="62" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G62" s="4">
         <v>0.03</v>
       </c>
@@ -2916,7 +3999,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G63" s="14" t="s">
         <v>30</v>
       </c>
@@ -2924,7 +4007,7 @@
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
     </row>
-    <row r="64" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G64" s="4">
         <v>0.06</v>
       </c>
@@ -2934,18 +4017,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="L18:R18"/>
-    <mergeCell ref="L23:R23"/>
-    <mergeCell ref="L28:R28"/>
-    <mergeCell ref="L33:R33"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="L2:U2"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="S4:U7"/>
-    <mergeCell ref="S9:U12"/>
     <mergeCell ref="L48:R48"/>
     <mergeCell ref="S14:U17"/>
     <mergeCell ref="S19:U22"/>
@@ -2956,9 +4027,22 @@
     <mergeCell ref="S44:U47"/>
     <mergeCell ref="L38:R38"/>
     <mergeCell ref="L43:R43"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="L2:U2"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="S4:U7"/>
+    <mergeCell ref="S9:U12"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="L23:R23"/>
+    <mergeCell ref="L28:R28"/>
+    <mergeCell ref="L33:R33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2966,27 +4050,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632B34C-613D-4C31-9A54-FD8E198389BA}">
   <dimension ref="C3:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="F3" s="24" t="s">
         <v>94</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="41" t="s">
         <v>20</v>
       </c>
@@ -3002,7 +4086,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
@@ -3020,7 +4104,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
@@ -3036,7 +4120,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
@@ -3052,7 +4136,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
@@ -3068,7 +4152,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="7"/>
@@ -3082,7 +4166,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="41" t="s">
         <v>34</v>
       </c>
@@ -3090,7 +4174,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3098,59 +4182,59 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="16">
         <v>0</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="16">
         <v>0.03</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" s="16">
         <v>0.06</v>
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
         <v>68</v>
       </c>
@@ -3158,7 +4242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" s="3" t="s">
         <v>98</v>
       </c>
@@ -3166,7 +4250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
         <v>97</v>
       </c>
@@ -3174,11 +4258,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" s="22"/>
       <c r="D25" s="23"/>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" s="3" t="s">
         <v>69</v>
       </c>
@@ -3186,7 +4270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" s="3" t="s">
         <v>99</v>
       </c>
@@ -3194,7 +4278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" s="3" t="s">
         <v>100</v>
       </c>
@@ -3202,11 +4286,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" s="3" t="s">
         <v>70</v>
       </c>
@@ -3214,7 +4298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" s="3" t="s">
         <v>101</v>
       </c>
@@ -3222,7 +4306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" s="3" t="s">
         <v>102</v>
       </c>
